--- a/capiq_data/in_process_data/IQ263765.xlsx
+++ b/capiq_data/in_process_data/IQ263765.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8551E-68F3-420E-AFF9-56A59F7B8E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEA2912-B7BD-41CA-AF54-4EA3B7B3F4F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"3e577694-ce67-4d0c-9fd6-c85c8b0ff11c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d78b1693-a633-4aec-9557-b6bc476fe550"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40537</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>109.8</v>
+        <v>11.962</v>
       </c>
       <c r="D2">
-        <v>835.1</v>
+        <v>582.09699999999998</v>
       </c>
       <c r="E2">
-        <v>570.79999999999995</v>
+        <v>111.693</v>
       </c>
       <c r="F2">
-        <v>359.5</v>
+        <v>201.071</v>
       </c>
       <c r="G2">
-        <v>2220.9</v>
+        <v>497.75099999999998</v>
       </c>
       <c r="H2">
-        <v>12697.6</v>
+        <v>1629.3040000000001</v>
       </c>
       <c r="I2">
-        <v>268.2</v>
+        <v>197.726</v>
       </c>
       <c r="J2">
-        <v>1959.6</v>
+        <v>105</v>
       </c>
       <c r="K2">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1333.9</v>
+        <v>379.33600000000001</v>
       </c>
       <c r="O2">
-        <v>4855</v>
+        <v>696.91499999999996</v>
       </c>
       <c r="P2">
-        <v>1960.7</v>
+        <v>105</v>
       </c>
       <c r="Q2">
-        <v>454.1</v>
+        <v>44.953000000000003</v>
       </c>
       <c r="R2">
-        <v>40537</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>14490</v>
+        <v>5850</v>
       </c>
       <c r="T2">
-        <v>7842.6</v>
+        <v>932.38900000000001</v>
       </c>
       <c r="U2">
-        <v>1217.5999999999999</v>
+        <v>119.761</v>
       </c>
       <c r="V2">
-        <v>6.5</v>
+        <v>83.576999999999998</v>
       </c>
       <c r="W2">
-        <v>-70.2</v>
+        <v>-6.8440000000000003</v>
       </c>
       <c r="X2">
-        <v>477.3</v>
+        <v>4.2619999999999996</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>10.5</v>
+        <v>15.807</v>
       </c>
       <c r="AA2">
-        <v>109.8</v>
+        <v>11.962</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40628</v>
+        <v>36982</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>82.9</v>
+        <v>18.327999999999999</v>
       </c>
       <c r="D3">
-        <v>690.4</v>
+        <v>543.70000000000005</v>
       </c>
       <c r="E3">
-        <v>493.8</v>
+        <v>156.62799999999999</v>
       </c>
       <c r="F3">
-        <v>263.2</v>
+        <v>192.547</v>
       </c>
       <c r="G3">
-        <v>2069.9</v>
+        <v>429.19299999999998</v>
       </c>
       <c r="H3">
-        <v>12869.3</v>
+        <v>1613.105</v>
       </c>
       <c r="I3">
-        <v>220.6</v>
+        <v>184.226</v>
       </c>
       <c r="J3">
-        <v>2003.2</v>
+        <v>105</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-10.3</v>
+        <v>-17.245000000000001</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1310.9</v>
+        <v>355.33699999999999</v>
       </c>
       <c r="O3">
-        <v>4816.3</v>
+        <v>664.07600000000002</v>
       </c>
       <c r="P3">
-        <v>2005.2</v>
+        <v>105</v>
       </c>
       <c r="Q3">
-        <v>-135.9</v>
+        <v>-77.796000000000006</v>
       </c>
       <c r="R3">
-        <v>40628</v>
+        <v>36982</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>8053</v>
+        <v>949.029</v>
       </c>
       <c r="U3">
-        <v>1081.7</v>
+        <v>41.965000000000003</v>
       </c>
       <c r="V3">
-        <v>45</v>
+        <v>-15.333</v>
       </c>
       <c r="W3">
-        <v>-52.1</v>
+        <v>-6.8929999999999998</v>
       </c>
       <c r="X3">
-        <v>-50.1</v>
+        <v>-17.696000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-99.7</v>
+        <v>-16.832999999999998</v>
       </c>
       <c r="AA3">
-        <v>82.9</v>
+        <v>18.327999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40719</v>
+        <v>37073</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>222.8</v>
+        <v>49.851999999999997</v>
       </c>
       <c r="D4">
-        <v>933.6</v>
+        <v>692.7</v>
       </c>
       <c r="E4">
-        <v>629.6</v>
+        <v>188.209</v>
       </c>
       <c r="F4">
-        <v>409.7</v>
+        <v>267.82</v>
       </c>
       <c r="G4">
-        <v>2364.6999999999998</v>
+        <v>475.97899999999998</v>
       </c>
       <c r="H4">
-        <v>13104.1</v>
+        <v>1683.25</v>
       </c>
       <c r="I4">
-        <v>229.5</v>
+        <v>210.08199999999999</v>
       </c>
       <c r="J4">
-        <v>1951.1</v>
+        <v>105</v>
       </c>
       <c r="K4">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1847.8</v>
+        <v>393.91199999999998</v>
       </c>
       <c r="O4">
-        <v>4917.3999999999996</v>
+        <v>694.85699999999997</v>
       </c>
       <c r="P4">
-        <v>2001.5</v>
+        <v>105</v>
       </c>
       <c r="Q4">
-        <v>102.5</v>
+        <v>35.963999999999999</v>
       </c>
       <c r="R4">
-        <v>40719</v>
+        <v>37073</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>8186.7</v>
+        <v>988.39300000000003</v>
       </c>
       <c r="U4">
-        <v>1184.2</v>
+        <v>77.929000000000002</v>
       </c>
       <c r="V4">
-        <v>226.8</v>
+        <v>124.62</v>
       </c>
       <c r="W4">
-        <v>-60</v>
+        <v>-7.6459999999999999</v>
       </c>
       <c r="X4">
-        <v>-75.2</v>
+        <v>-35.765000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-11.416</v>
       </c>
       <c r="AA4">
-        <v>222.8</v>
+        <v>49.851999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40810</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>197.4</v>
+        <v>38.915999999999997</v>
       </c>
       <c r="D5">
-        <v>954.4</v>
+        <v>634.66300000000001</v>
       </c>
       <c r="E5">
-        <v>574</v>
+        <v>154.50700000000001</v>
       </c>
       <c r="F5">
-        <v>403.9</v>
+        <v>232.357</v>
       </c>
       <c r="G5">
-        <v>1997.5</v>
+        <v>448.95600000000002</v>
       </c>
       <c r="H5">
-        <v>12429.9</v>
+        <v>1678.7249999999999</v>
       </c>
       <c r="I5">
-        <v>261.8</v>
+        <v>164.18600000000001</v>
       </c>
       <c r="J5">
-        <v>1901.3</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1285.5</v>
+        <v>475.92899999999997</v>
       </c>
       <c r="O5">
-        <v>4491.1000000000004</v>
+        <v>702.86699999999996</v>
       </c>
       <c r="P5">
-        <v>1947.7</v>
+        <v>105</v>
       </c>
       <c r="Q5">
-        <v>-197</v>
+        <v>-30.388000000000002</v>
       </c>
       <c r="R5">
-        <v>40810</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>7938.8</v>
+        <v>975.85799999999995</v>
       </c>
       <c r="U5">
-        <v>987.2</v>
+        <v>47.540999999999997</v>
       </c>
       <c r="V5">
-        <v>331.6</v>
+        <v>69.084999999999994</v>
       </c>
       <c r="W5">
-        <v>-58</v>
+        <v>-7.5970000000000004</v>
       </c>
       <c r="X5">
-        <v>-431</v>
+        <v>-23.832000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-29.8</v>
+        <v>-16.719000000000001</v>
       </c>
       <c r="AA5">
-        <v>197.4</v>
+        <v>38.915999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37255</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>173.2</v>
+        <v>15.868</v>
       </c>
       <c r="D6">
-        <v>937.3</v>
+        <v>558.399</v>
       </c>
       <c r="E6">
-        <v>588.79999999999995</v>
+        <v>95.207999999999998</v>
       </c>
       <c r="F6">
-        <v>389.8</v>
+        <v>199.11500000000001</v>
       </c>
       <c r="G6">
-        <v>2118</v>
+        <v>606.529</v>
       </c>
       <c r="H6">
-        <v>12423.8</v>
+        <v>1739.692</v>
       </c>
       <c r="I6">
-        <v>301.2</v>
+        <v>222.49299999999999</v>
       </c>
       <c r="J6">
-        <v>1914.9</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1277.2</v>
+        <v>517.54499999999996</v>
       </c>
       <c r="O6">
-        <v>4733.6000000000004</v>
+        <v>788.38</v>
       </c>
       <c r="P6">
-        <v>1961.8</v>
+        <v>108.038</v>
       </c>
       <c r="Q6">
-        <v>91.7</v>
+        <v>29.591999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37255</v>
       </c>
       <c r="S6">
-        <v>15263</v>
+        <v>8650</v>
       </c>
       <c r="T6">
-        <v>7690.2</v>
+        <v>951.31200000000001</v>
       </c>
       <c r="U6">
-        <v>1078.9000000000001</v>
+        <v>77.132999999999996</v>
       </c>
       <c r="V6">
-        <v>264.7</v>
+        <v>15.023999999999999</v>
       </c>
       <c r="W6">
-        <v>-58</v>
+        <v>-7.3739999999999997</v>
       </c>
       <c r="X6">
-        <v>-108.8</v>
+        <v>38.448999999999998</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>28.9</v>
+        <v>19.824000000000002</v>
       </c>
       <c r="AA6">
-        <v>173.2</v>
+        <v>15.868</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>79.5</v>
+        <v>27.202999999999999</v>
       </c>
       <c r="D7">
-        <v>691.4</v>
+        <v>745.822</v>
       </c>
       <c r="E7">
-        <v>512.4</v>
+        <v>427.13200000000001</v>
       </c>
       <c r="F7">
-        <v>252.6</v>
+        <v>263.47800000000001</v>
       </c>
       <c r="G7">
-        <v>1874.2</v>
+        <v>995.63</v>
       </c>
       <c r="H7">
-        <v>12436.2</v>
+        <v>3942.1660000000002</v>
       </c>
       <c r="I7">
-        <v>205.6</v>
+        <v>276.62200000000001</v>
       </c>
       <c r="J7">
-        <v>1950.4</v>
+        <v>1554.6559999999999</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-10.8</v>
+        <v>-14.058</v>
       </c>
       <c r="M7">
-        <v>-0.1</v>
+        <v>-5</v>
       </c>
       <c r="N7">
-        <v>1060</v>
+        <v>953.78899999999999</v>
       </c>
       <c r="O7">
-        <v>4588.3</v>
+        <v>2966.625</v>
       </c>
       <c r="P7">
-        <v>1998.6</v>
+        <v>1664.6559999999999</v>
       </c>
       <c r="Q7">
-        <v>-242.6</v>
+        <v>100.26900000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7847.9</v>
+        <v>975.54100000000005</v>
       </c>
       <c r="U7">
-        <v>836.3</v>
+        <v>177.40199999999999</v>
       </c>
       <c r="V7">
-        <v>50.4</v>
+        <v>-27.259</v>
       </c>
       <c r="W7">
-        <v>-57.8</v>
+        <v>-7.3739999999999997</v>
       </c>
       <c r="X7">
-        <v>-45.9</v>
+        <v>1529.914</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-116</v>
+        <v>232.75800000000001</v>
       </c>
       <c r="AA7">
-        <v>79.5</v>
+        <v>27.202999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>105.1</v>
+        <v>67.616</v>
       </c>
       <c r="D8">
-        <v>999.4</v>
+        <v>1047.769</v>
       </c>
       <c r="E8">
-        <v>739.9</v>
+        <v>489.387</v>
       </c>
       <c r="F8">
-        <v>427.9</v>
+        <v>407.74900000000002</v>
       </c>
       <c r="G8">
-        <v>1833.6</v>
+        <v>1030.8389999999999</v>
       </c>
       <c r="H8">
-        <v>16236.7</v>
+        <v>4102.4309999999996</v>
       </c>
       <c r="I8">
-        <v>492</v>
+        <v>326.69299999999998</v>
       </c>
       <c r="J8">
-        <v>4097.8999999999996</v>
+        <v>1513.375</v>
       </c>
       <c r="K8">
-        <v>119.4</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2286.1</v>
+        <v>1005.1079999999999</v>
       </c>
       <c r="O8">
-        <v>8354.7999999999993</v>
+        <v>3017.5650000000001</v>
       </c>
       <c r="P8">
-        <v>4902</v>
+        <v>1620.0830000000001</v>
       </c>
       <c r="Q8">
-        <v>-320.3</v>
+        <v>-39.295999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7881.9</v>
+        <v>1084.866</v>
       </c>
       <c r="U8">
-        <v>516</v>
+        <v>138.10599999999999</v>
       </c>
       <c r="V8">
-        <v>347</v>
+        <v>85.817999999999998</v>
       </c>
       <c r="W8">
-        <v>-58.1</v>
+        <v>-7.4219999999999997</v>
       </c>
       <c r="X8">
-        <v>1629.5</v>
+        <v>-83.778999999999996</v>
       </c>
       <c r="Y8">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>105.1</v>
+        <v>67.616</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37528</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>198.4</v>
+        <v>46.619</v>
       </c>
       <c r="D9">
-        <v>1195.5</v>
+        <v>1001.598</v>
       </c>
       <c r="E9">
-        <v>642.6</v>
+        <v>515.423</v>
       </c>
       <c r="F9">
-        <v>508.5</v>
+        <v>365.50400000000002</v>
       </c>
       <c r="G9">
-        <v>1780.8</v>
+        <v>999.58100000000002</v>
       </c>
       <c r="H9">
-        <v>16466.5</v>
+        <v>4128.9750000000004</v>
       </c>
       <c r="I9">
-        <v>488.9</v>
+        <v>330.46899999999999</v>
       </c>
       <c r="J9">
-        <v>3438.1</v>
+        <v>1447.037</v>
       </c>
       <c r="K9">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2725.2</v>
+        <v>1010.0890000000001</v>
       </c>
       <c r="O9">
-        <v>8187.3</v>
+        <v>2976.9850000000001</v>
       </c>
       <c r="P9">
-        <v>4698.2</v>
+        <v>1498.15</v>
       </c>
       <c r="Q9">
-        <v>69.7</v>
+        <v>-67.361999999999995</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37528</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>8279.2000000000007</v>
+        <v>1151.99</v>
       </c>
       <c r="U9">
-        <v>585.70000000000005</v>
+        <v>70.744</v>
       </c>
       <c r="V9">
-        <v>442.6</v>
+        <v>134.643</v>
       </c>
       <c r="W9">
-        <v>-58.1</v>
+        <v>-7.4240000000000004</v>
       </c>
       <c r="X9">
-        <v>-326.3</v>
+        <v>-158.63900000000001</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>3.3</v>
+        <v>-2.75</v>
       </c>
       <c r="AA9">
-        <v>198.4</v>
+        <v>46.619</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>37619</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>20.215</v>
       </c>
       <c r="D10">
-        <v>1030.2</v>
+        <v>981.13300000000004</v>
       </c>
       <c r="E10">
-        <v>660.5</v>
+        <v>641.69200000000001</v>
       </c>
       <c r="F10">
-        <v>383.6</v>
+        <v>325.06099999999998</v>
       </c>
       <c r="G10">
-        <v>1748</v>
+        <v>1053.896</v>
       </c>
       <c r="H10">
-        <v>16212.2</v>
+        <v>4297.4110000000001</v>
       </c>
       <c r="I10">
-        <v>490.3</v>
+        <v>334.64699999999999</v>
       </c>
       <c r="J10">
-        <v>3422.5</v>
+        <v>1383.3920000000001</v>
       </c>
       <c r="K10">
-        <v>13.2</v>
+        <v>101.654</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2598.6999999999998</v>
+        <v>1147.8910000000001</v>
       </c>
       <c r="O10">
-        <v>8220.6</v>
+        <v>3315.56</v>
       </c>
       <c r="P10">
-        <v>4668.1000000000004</v>
+        <v>1527.441</v>
       </c>
       <c r="Q10">
-        <v>38.299999999999997</v>
+        <v>-11.577</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>37619</v>
       </c>
       <c r="S10">
-        <v>18700</v>
+        <v>8700</v>
       </c>
       <c r="T10">
-        <v>7991.6</v>
+        <v>981.851</v>
       </c>
       <c r="U10">
-        <v>624</v>
+        <v>59.167000000000002</v>
       </c>
       <c r="V10">
-        <v>143.69999999999999</v>
+        <v>65.343000000000004</v>
       </c>
       <c r="W10">
-        <v>-58.2</v>
+        <v>-7.4489999999999998</v>
       </c>
       <c r="X10">
-        <v>-85.9</v>
+        <v>4.1719999999999997</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>39.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>60</v>
+        <v>20.215</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37710</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>28.5</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="D11">
-        <v>828.5</v>
+        <v>828.14099999999996</v>
       </c>
       <c r="E11">
-        <v>572.20000000000005</v>
+        <v>487.26900000000001</v>
       </c>
       <c r="F11">
-        <v>281.39999999999998</v>
+        <v>268.66699999999997</v>
       </c>
       <c r="G11">
-        <v>1689.7</v>
+        <v>871.529</v>
       </c>
       <c r="H11">
-        <v>15942.7</v>
+        <v>4093.9760000000001</v>
       </c>
       <c r="I11">
-        <v>455.5</v>
+        <v>250.61199999999999</v>
       </c>
       <c r="J11">
-        <v>3390.8</v>
+        <v>1356.2090000000001</v>
       </c>
       <c r="K11">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-15</v>
+        <v>-11.028</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-305.72500000000002</v>
       </c>
       <c r="N11">
-        <v>2614.8000000000002</v>
+        <v>961.92</v>
       </c>
       <c r="O11">
-        <v>8145.8</v>
+        <v>3095.0419999999999</v>
       </c>
       <c r="P11">
-        <v>4651.2</v>
+        <v>1511.7159999999999</v>
       </c>
       <c r="Q11">
-        <v>-112.5</v>
+        <v>-50.131999999999998</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37710</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>7796.9</v>
+        <v>998.93399999999997</v>
       </c>
       <c r="U11">
-        <v>511.5</v>
+        <v>9.0350000000000001</v>
       </c>
       <c r="V11">
-        <v>118.4</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="W11">
-        <v>-58.2</v>
+        <v>-7.45</v>
       </c>
       <c r="X11">
-        <v>-35.200000000000003</v>
+        <v>-29.858000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-109.4</v>
+        <v>-2.7450000000000001</v>
       </c>
       <c r="AA11">
-        <v>28.5</v>
+        <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37801</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>267.3</v>
+        <v>76.341999999999999</v>
       </c>
       <c r="D12">
-        <v>1178</v>
+        <v>1100.376</v>
       </c>
       <c r="E12">
-        <v>693.4</v>
+        <v>603.27</v>
       </c>
       <c r="F12">
-        <v>493.9</v>
+        <v>417.28899999999999</v>
       </c>
       <c r="G12">
-        <v>2071.3000000000002</v>
+        <v>998.32799999999997</v>
       </c>
       <c r="H12">
-        <v>16116.9</v>
+        <v>4269.5060000000003</v>
       </c>
       <c r="I12">
-        <v>1363.1</v>
+        <v>278.43599999999998</v>
       </c>
       <c r="J12">
-        <v>3295.7</v>
+        <v>1386.454</v>
       </c>
       <c r="K12">
-        <v>13.8</v>
+        <v>39.35</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2919.9</v>
+        <v>963.20899999999995</v>
       </c>
       <c r="O12">
-        <v>8106.1</v>
+        <v>3169.163</v>
       </c>
       <c r="P12">
-        <v>4568.1000000000004</v>
+        <v>1469.883</v>
       </c>
       <c r="Q12">
-        <v>290.10000000000002</v>
+        <v>3.73</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37801</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>8010.8</v>
+        <v>1100.3430000000001</v>
       </c>
       <c r="U12">
-        <v>801.6</v>
+        <v>12.765000000000001</v>
       </c>
       <c r="V12">
-        <v>472.6</v>
+        <v>123.884</v>
       </c>
       <c r="W12">
-        <v>-58.6</v>
+        <v>-7.4509999999999996</v>
       </c>
       <c r="X12">
-        <v>-108.9</v>
+        <v>-79.522999999999996</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>267.3</v>
+        <v>76.341999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37892</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>134.30000000000001</v>
+        <v>61.427999999999997</v>
       </c>
       <c r="D13">
-        <v>1171.2</v>
+        <v>1048.7239999999999</v>
       </c>
       <c r="E13">
-        <v>658.6</v>
+        <v>577.17399999999998</v>
       </c>
       <c r="F13">
-        <v>501.2</v>
+        <v>390.70800000000003</v>
       </c>
       <c r="G13">
-        <v>1596.1</v>
+        <v>1048.3579999999999</v>
       </c>
       <c r="H13">
-        <v>15772.8</v>
+        <v>4287.415</v>
       </c>
       <c r="I13">
-        <v>1394.6</v>
+        <v>315.49700000000001</v>
       </c>
       <c r="J13">
-        <v>3253.5</v>
+        <v>1275.623</v>
       </c>
       <c r="K13">
-        <v>577.5</v>
+        <v>9.5139999999999993</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2287.9</v>
+        <v>1019.494</v>
       </c>
       <c r="O13">
-        <v>7454.1</v>
+        <v>3138.5569999999998</v>
       </c>
       <c r="P13">
-        <v>3891.8</v>
+        <v>1370.241</v>
       </c>
       <c r="Q13">
-        <v>-394.7</v>
+        <v>18.486000000000001</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37892</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>8318.7000000000007</v>
+        <v>1148.8579999999999</v>
       </c>
       <c r="U13">
-        <v>406.9</v>
+        <v>31.251000000000001</v>
       </c>
       <c r="V13">
-        <v>439</v>
+        <v>167.76300000000001</v>
       </c>
       <c r="W13">
-        <v>-58.9</v>
+        <v>-7.4580000000000002</v>
       </c>
       <c r="X13">
-        <v>-780.7</v>
+        <v>-110.899</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-1.1000000000000001</v>
+        <v>-2.4940000000000002</v>
       </c>
       <c r="AA13">
-        <v>134.30000000000001</v>
+        <v>61.427999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37983</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>137.19999999999999</v>
+        <v>36.081000000000003</v>
       </c>
       <c r="D14">
-        <v>1028.4000000000001</v>
+        <v>1022.872</v>
       </c>
       <c r="E14">
-        <v>603.6</v>
+        <v>656.42</v>
       </c>
       <c r="F14">
-        <v>386.7</v>
+        <v>336.666</v>
       </c>
       <c r="G14">
-        <v>1537.7</v>
+        <v>1078.848</v>
       </c>
       <c r="H14">
-        <v>15580.1</v>
+        <v>4444.74</v>
       </c>
       <c r="I14">
-        <v>599.70000000000005</v>
+        <v>354.87299999999999</v>
       </c>
       <c r="J14">
-        <v>3213</v>
+        <v>1159.838</v>
       </c>
       <c r="K14">
-        <v>525.1</v>
+        <v>21.309000000000001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2161.4</v>
+        <v>1133.722</v>
       </c>
       <c r="O14">
-        <v>6950</v>
+        <v>3177.364</v>
       </c>
       <c r="P14">
-        <v>3799.9</v>
+        <v>1251.0029999999999</v>
       </c>
       <c r="Q14">
-        <v>35.4</v>
+        <v>-11.811</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37983</v>
       </c>
       <c r="S14">
-        <v>17650</v>
+        <v>8500</v>
       </c>
       <c r="T14">
-        <v>8630.1</v>
+        <v>1267.376</v>
       </c>
       <c r="U14">
-        <v>442.3</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="V14">
-        <v>138.19999999999999</v>
+        <v>199.56100000000001</v>
       </c>
       <c r="W14">
-        <v>-58.9</v>
+        <v>-7.4610000000000003</v>
       </c>
       <c r="X14">
-        <v>-134.4</v>
+        <v>-137.113</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>63.5</v>
+        <v>-1E-3</v>
       </c>
       <c r="AA14">
-        <v>137.19999999999999</v>
+        <v>36.081000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38074</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>163.4</v>
+        <v>4.84</v>
       </c>
       <c r="D15">
-        <v>816</v>
+        <v>923.99300000000005</v>
       </c>
       <c r="E15">
-        <v>552.1</v>
+        <v>569.73599999999999</v>
       </c>
       <c r="F15">
-        <v>292.8</v>
+        <v>312.24900000000002</v>
       </c>
       <c r="G15">
-        <v>1484.3</v>
+        <v>1010.307</v>
       </c>
       <c r="H15">
-        <v>15365.8</v>
+        <v>4491.5119999999997</v>
       </c>
       <c r="I15">
-        <v>1264</v>
+        <v>301.62900000000002</v>
       </c>
       <c r="J15">
-        <v>3162.3</v>
+        <v>1035.894</v>
       </c>
       <c r="K15">
-        <v>615.4</v>
+        <v>15.295</v>
       </c>
       <c r="L15">
-        <v>-54.3</v>
+        <v>-647.19100000000003</v>
       </c>
       <c r="M15">
-        <v>-46.9</v>
+        <v>-86.138000000000005</v>
       </c>
       <c r="N15">
-        <v>2071.8000000000002</v>
+        <v>1126.2080000000001</v>
       </c>
       <c r="O15">
-        <v>6741.1</v>
+        <v>3102.8409999999999</v>
       </c>
       <c r="P15">
-        <v>3792.7</v>
+        <v>1253.941</v>
       </c>
       <c r="Q15">
-        <v>-104.7</v>
+        <v>8.1010000000000009</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38074</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>8624.7000000000007</v>
+        <v>1388.671</v>
       </c>
       <c r="U15">
-        <v>337.6</v>
+        <v>27.541</v>
       </c>
       <c r="V15">
-        <v>149.69999999999999</v>
+        <v>26.253</v>
       </c>
       <c r="W15">
-        <v>-68.2</v>
+        <v>-7.56</v>
       </c>
       <c r="X15">
-        <v>-80.2</v>
+        <v>-18.294</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-95.4</v>
+        <v>-0.998</v>
       </c>
       <c r="AA15">
-        <v>163.4</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38165</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>290.89999999999998</v>
+        <v>72.036000000000001</v>
       </c>
       <c r="D16">
-        <v>1188.5</v>
+        <v>1150.212</v>
       </c>
       <c r="E16">
-        <v>730.9</v>
+        <v>650.43399999999997</v>
       </c>
       <c r="F16">
-        <v>505.2</v>
+        <v>447.18799999999999</v>
       </c>
       <c r="G16">
-        <v>1800.3</v>
+        <v>1128.5450000000001</v>
       </c>
       <c r="H16">
-        <v>15873</v>
+        <v>4531.9570000000003</v>
       </c>
       <c r="I16">
-        <v>1512</v>
+        <v>304.83100000000002</v>
       </c>
       <c r="J16">
-        <v>3208.9</v>
+        <v>931.62199999999996</v>
       </c>
       <c r="K16">
-        <v>451.6</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2111.6999999999998</v>
+        <v>1175.9290000000001</v>
       </c>
       <c r="O16">
-        <v>6887.9</v>
+        <v>3076.7840000000001</v>
       </c>
       <c r="P16">
-        <v>3660.5</v>
+        <v>1142.1369999999999</v>
       </c>
       <c r="Q16">
-        <v>168.4</v>
+        <v>8.702</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38165</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>8985.1</v>
+        <v>1455.173</v>
       </c>
       <c r="U16">
-        <v>506</v>
+        <v>36.243000000000002</v>
       </c>
       <c r="V16">
-        <v>426.3</v>
+        <v>124.988</v>
       </c>
       <c r="W16">
-        <v>-68.5</v>
+        <v>-7.6180000000000003</v>
       </c>
       <c r="X16">
-        <v>-242.9</v>
+        <v>-112.044</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>22.9</v>
+        <v>0.998</v>
       </c>
       <c r="AA16">
-        <v>290.89999999999998</v>
+        <v>72.036000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38256</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-34.4</v>
+        <v>64.141999999999996</v>
       </c>
       <c r="D17">
-        <v>1168</v>
+        <v>1104.306</v>
       </c>
       <c r="E17">
-        <v>578.29999999999995</v>
+        <v>588.26400000000001</v>
       </c>
       <c r="F17">
-        <v>501.4</v>
+        <v>415.92200000000003</v>
       </c>
       <c r="G17">
-        <v>1811.9</v>
+        <v>1121.8810000000001</v>
       </c>
       <c r="H17">
-        <v>14833.4</v>
+        <v>4476.634</v>
       </c>
       <c r="I17">
-        <v>1361.7</v>
+        <v>258.916</v>
       </c>
       <c r="J17">
-        <v>2345.8000000000002</v>
+        <v>920.31700000000001</v>
       </c>
       <c r="K17">
-        <v>305.3</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2619.8000000000002</v>
+        <v>1124.5309999999999</v>
       </c>
       <c r="O17">
-        <v>6411</v>
+        <v>2931.739</v>
       </c>
       <c r="P17">
-        <v>3457.1</v>
+        <v>1063.9770000000001</v>
       </c>
       <c r="Q17">
-        <v>216.1</v>
+        <v>56.243000000000002</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38256</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>8422.4</v>
+        <v>1544.895</v>
       </c>
       <c r="U17">
-        <v>722.1</v>
+        <v>92.486000000000004</v>
       </c>
       <c r="V17">
-        <v>482.4</v>
+        <v>153.08000000000001</v>
       </c>
       <c r="W17">
-        <v>-68.400000000000006</v>
+        <v>-7.665</v>
       </c>
       <c r="X17">
-        <v>-190.1</v>
+        <v>-86.698999999999998</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>31.9</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-34.4</v>
+        <v>64.141999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38347</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>94.1</v>
+        <v>55.718000000000004</v>
       </c>
       <c r="D18">
-        <v>973.8</v>
+        <v>1127.3050000000001</v>
       </c>
       <c r="E18">
-        <v>527.70000000000005</v>
+        <v>692.37199999999996</v>
       </c>
       <c r="F18">
-        <v>357.8</v>
+        <v>388.76299999999998</v>
       </c>
       <c r="G18">
-        <v>1577.1</v>
+        <v>1268.2159999999999</v>
       </c>
       <c r="H18">
-        <v>13980.1</v>
+        <v>4657.5240000000003</v>
       </c>
       <c r="I18">
-        <v>618</v>
+        <v>326.03399999999999</v>
       </c>
       <c r="J18">
-        <v>2321.3000000000002</v>
+        <v>893.678</v>
       </c>
       <c r="K18">
-        <v>75.099999999999994</v>
+        <v>12.5</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2324.9</v>
+        <v>1176.8969999999999</v>
       </c>
       <c r="O18">
-        <v>6094</v>
+        <v>3019.49</v>
       </c>
       <c r="P18">
-        <v>3183.3</v>
+        <v>932.20600000000002</v>
       </c>
       <c r="Q18">
-        <v>-97.5</v>
+        <v>30.527000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38347</v>
       </c>
       <c r="S18">
-        <v>17400</v>
+        <v>8400</v>
       </c>
       <c r="T18">
-        <v>7886.1</v>
+        <v>1638.0340000000001</v>
       </c>
       <c r="U18">
-        <v>624.6</v>
+        <v>123.01300000000001</v>
       </c>
       <c r="V18">
-        <v>214.2</v>
+        <v>195.58699999999999</v>
       </c>
       <c r="W18">
-        <v>-68.5</v>
+        <v>-7.6920000000000002</v>
       </c>
       <c r="X18">
-        <v>-288.8</v>
+        <v>-118.627</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>35</v>
+        <v>-2.7440000000000002</v>
       </c>
       <c r="AA18">
-        <v>94.1</v>
+        <v>55.718000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38438</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>81.099999999999994</v>
+        <v>-34.183999999999997</v>
       </c>
       <c r="D19">
-        <v>700</v>
+        <v>1048.4349999999999</v>
       </c>
       <c r="E19">
-        <v>459.1</v>
+        <v>659.755</v>
       </c>
       <c r="F19">
-        <v>245.2</v>
+        <v>358.791</v>
       </c>
       <c r="G19">
-        <v>1278.0999999999999</v>
+        <v>1501.2439999999999</v>
       </c>
       <c r="H19">
-        <v>12951.7</v>
+        <v>11845.034</v>
       </c>
       <c r="I19">
-        <v>1092.7</v>
+        <v>295.12400000000002</v>
       </c>
       <c r="J19">
-        <v>2310.1</v>
+        <v>1721.606</v>
       </c>
       <c r="K19">
-        <v>231.9</v>
+        <v>897.06700000000001</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-775.03300000000002</v>
       </c>
       <c r="M19">
-        <v>-7.1</v>
+        <v>-634.62599999999998</v>
       </c>
       <c r="N19">
-        <v>2254.1</v>
+        <v>2487.181</v>
       </c>
       <c r="O19">
-        <v>5666.6</v>
+        <v>6590.1049999999996</v>
       </c>
       <c r="P19">
-        <v>3278.2</v>
+        <v>2643.7350000000001</v>
       </c>
       <c r="Q19">
-        <v>-307</v>
+        <v>-28.920999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38438</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>7285.1</v>
+        <v>5254.9290000000001</v>
       </c>
       <c r="U19">
-        <v>317.60000000000002</v>
+        <v>95.548000000000002</v>
       </c>
       <c r="V19">
-        <v>-202.6</v>
+        <v>-96.757999999999996</v>
       </c>
       <c r="W19">
-        <v>-76.2</v>
+        <v>-27.292999999999999</v>
       </c>
       <c r="X19">
-        <v>123.3</v>
+        <v>75.84</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-107.5</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>81.099999999999994</v>
+        <v>-34.183999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38529</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>229</v>
+        <v>38.545999999999999</v>
       </c>
       <c r="D20">
-        <v>1005.7</v>
+        <v>1546.8630000000001</v>
       </c>
       <c r="E20">
-        <v>595.1</v>
+        <v>762.01199999999994</v>
       </c>
       <c r="F20">
-        <v>425.8</v>
+        <v>651.26199999999994</v>
       </c>
       <c r="G20">
-        <v>1476.2</v>
+        <v>1589.8330000000001</v>
       </c>
       <c r="H20">
-        <v>13397.2</v>
+        <v>11894.748</v>
       </c>
       <c r="I20">
-        <v>1307</v>
+        <v>305.58</v>
       </c>
       <c r="J20">
-        <v>2305.1999999999998</v>
+        <v>1678.203</v>
       </c>
       <c r="K20">
-        <v>112.2</v>
+        <v>1011.985</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2349.5</v>
+        <v>2574.123</v>
       </c>
       <c r="O20">
-        <v>5765.8</v>
+        <v>6686.6719999999996</v>
       </c>
       <c r="P20">
-        <v>3155.9</v>
+        <v>2734.0680000000002</v>
       </c>
       <c r="Q20">
-        <v>96.2</v>
+        <v>-50.171999999999997</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38529</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>7631.4</v>
+        <v>5208.076</v>
       </c>
       <c r="U20">
-        <v>413.8</v>
+        <v>45.359000000000002</v>
       </c>
       <c r="V20">
-        <v>400.7</v>
+        <v>-30.059000000000001</v>
       </c>
       <c r="W20">
-        <v>-76.099999999999994</v>
+        <v>-27.63</v>
       </c>
       <c r="X20">
-        <v>-248</v>
+        <v>71.305999999999997</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>42.3</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>229</v>
+        <v>38.545999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38620</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>16.600000000000001</v>
+        <v>108.19799999999999</v>
       </c>
       <c r="D21">
-        <v>1017.4</v>
+        <v>1527.098</v>
       </c>
       <c r="E21">
-        <v>524.6</v>
+        <v>688.678</v>
       </c>
       <c r="F21">
-        <v>431.5</v>
+        <v>644.59500000000003</v>
       </c>
       <c r="G21">
-        <v>1351.6</v>
+        <v>1579.08</v>
       </c>
       <c r="H21">
-        <v>12645.3</v>
+        <v>12216.937</v>
       </c>
       <c r="I21">
-        <v>1173.7</v>
+        <v>303.113</v>
       </c>
       <c r="J21">
-        <v>2953.9</v>
+        <v>2590.2860000000001</v>
       </c>
       <c r="K21">
-        <v>48.2</v>
+        <v>44.927</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1413.3</v>
+        <v>1650.3030000000001</v>
       </c>
       <c r="O21">
-        <v>5372.6</v>
+        <v>6773.9840000000004</v>
       </c>
       <c r="P21">
-        <v>3002.1</v>
+        <v>2663.951</v>
       </c>
       <c r="Q21">
-        <v>-20.2</v>
+        <v>53.515000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38620</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>7272.7</v>
+        <v>5442.9530000000004</v>
       </c>
       <c r="U21">
-        <v>393.6</v>
+        <v>101.479</v>
       </c>
       <c r="V21">
-        <v>280.89999999999998</v>
+        <v>331.36599999999999</v>
       </c>
       <c r="W21">
-        <v>-75.8</v>
+        <v>-27.524999999999999</v>
       </c>
       <c r="X21">
-        <v>-202.9</v>
+        <v>-194.84100000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>16.600000000000001</v>
+        <v>108.19799999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38711</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>32.799999999999997</v>
+        <v>22.384</v>
       </c>
       <c r="D22">
-        <v>844.4</v>
+        <v>1384.51</v>
       </c>
       <c r="E22">
-        <v>424.7</v>
+        <v>692.63800000000003</v>
       </c>
       <c r="F22">
-        <v>301.5</v>
+        <v>545.30899999999997</v>
       </c>
       <c r="G22">
-        <v>1258.8</v>
+        <v>1468.242</v>
       </c>
       <c r="H22">
-        <v>12276.3</v>
+        <v>11799.264999999999</v>
       </c>
       <c r="I22">
-        <v>559.6</v>
+        <v>372.32400000000001</v>
       </c>
       <c r="J22">
-        <v>2908.7</v>
+        <v>2136.6680000000001</v>
       </c>
       <c r="K22">
-        <v>28.7</v>
+        <v>14.000999999999999</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1217.2</v>
+        <v>2236.616</v>
       </c>
       <c r="O22">
-        <v>5213.2</v>
+        <v>6390.7359999999999</v>
       </c>
       <c r="P22">
-        <v>2937.4</v>
+        <v>2484.77</v>
       </c>
       <c r="Q22">
-        <v>37.299999999999997</v>
+        <v>-58.021999999999998</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38711</v>
       </c>
       <c r="S22">
-        <v>17500</v>
+        <v>10200</v>
       </c>
       <c r="T22">
-        <v>7063.1</v>
+        <v>5408.5290000000005</v>
       </c>
       <c r="U22">
-        <v>430.9</v>
+        <v>39.412999999999997</v>
       </c>
       <c r="V22">
-        <v>236.9</v>
+        <v>217.726</v>
       </c>
       <c r="W22">
-        <v>-75.3</v>
+        <v>-27.512</v>
       </c>
       <c r="X22">
-        <v>-203.9</v>
+        <v>-141.08000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>54.7</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>32.799999999999997</v>
+        <v>22.384</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38802</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>162.69999999999999</v>
+        <v>-30.236999999999998</v>
       </c>
       <c r="D23">
-        <v>657.2</v>
+        <v>1153.846</v>
       </c>
       <c r="E23">
-        <v>456.5</v>
+        <v>559.28499999999997</v>
       </c>
       <c r="F23">
-        <v>243.2</v>
+        <v>427.178</v>
       </c>
       <c r="G23">
-        <v>3762.8</v>
+        <v>1198.5830000000001</v>
       </c>
       <c r="H23">
-        <v>15210.3</v>
+        <v>11062.905000000001</v>
       </c>
       <c r="I23">
-        <v>1139.9000000000001</v>
+        <v>299.35899999999998</v>
       </c>
       <c r="J23">
-        <v>2973.4</v>
+        <v>2131.4349999999999</v>
       </c>
       <c r="K23">
-        <v>63.5</v>
+        <v>14.792999999999999</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-113.623</v>
       </c>
       <c r="M23">
-        <v>-10.3</v>
+        <v>-1.0980000000000001</v>
       </c>
       <c r="N23">
-        <v>1221.9000000000001</v>
+        <v>1865.423</v>
       </c>
       <c r="O23">
-        <v>5291</v>
+        <v>5738.7</v>
       </c>
       <c r="P23">
-        <v>3036.9</v>
+        <v>2543.6019999999999</v>
       </c>
       <c r="Q23">
-        <v>2172</v>
+        <v>19.876000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38802</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>9919.2999999999993</v>
+        <v>5324.2049999999999</v>
       </c>
       <c r="U23">
-        <v>2602.9</v>
+        <v>59.289000000000001</v>
       </c>
       <c r="V23">
-        <v>-88.3</v>
+        <v>-10.375</v>
       </c>
       <c r="W23">
-        <v>-88.3</v>
+        <v>-27.408000000000001</v>
       </c>
       <c r="X23">
-        <v>2458.5</v>
+        <v>54.420999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-130.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>162.69999999999999</v>
+        <v>-30.236999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38893</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>172.3</v>
+        <v>156.227</v>
       </c>
       <c r="D24">
-        <v>986.2</v>
+        <v>1583.0250000000001</v>
       </c>
       <c r="E24">
-        <v>563.1</v>
+        <v>784.98599999999999</v>
       </c>
       <c r="F24">
-        <v>424</v>
+        <v>663.04899999999998</v>
       </c>
       <c r="G24">
-        <v>4070.7</v>
+        <v>1476.7719999999999</v>
       </c>
       <c r="H24">
-        <v>15322.2</v>
+        <v>11687.742</v>
       </c>
       <c r="I24">
-        <v>1294.7</v>
+        <v>365.44299999999998</v>
       </c>
       <c r="J24">
-        <v>2680.3</v>
+        <v>2162.9989999999998</v>
       </c>
       <c r="K24">
-        <v>47.1</v>
+        <v>11.057</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1667.6</v>
+        <v>2091.527</v>
       </c>
       <c r="O24">
-        <v>5450.3</v>
+        <v>5976.9359999999997</v>
       </c>
       <c r="P24">
-        <v>3027.3</v>
+        <v>2473.306</v>
       </c>
       <c r="Q24">
-        <v>387.4</v>
+        <v>20.302</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38893</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>9871.9</v>
+        <v>5710.8059999999996</v>
       </c>
       <c r="U24">
-        <v>2990.3</v>
+        <v>79.590999999999994</v>
       </c>
       <c r="V24">
-        <v>370.7</v>
+        <v>247.54</v>
       </c>
       <c r="W24">
-        <v>-88.2</v>
+        <v>-27.526</v>
       </c>
       <c r="X24">
-        <v>-119.9</v>
+        <v>-127.658</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>50.8</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>172.3</v>
+        <v>156.227</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38984</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>202.5</v>
+        <v>135.79400000000001</v>
       </c>
       <c r="D25">
-        <v>947.6</v>
+        <v>1576.8240000000001</v>
       </c>
       <c r="E25">
-        <v>474.4</v>
+        <v>656.53899999999999</v>
       </c>
       <c r="F25">
-        <v>406.3</v>
+        <v>669.51900000000001</v>
       </c>
       <c r="G25">
-        <v>10947.7</v>
+        <v>1452.5039999999999</v>
       </c>
       <c r="H25">
-        <v>22196.799999999999</v>
+        <v>11784.725</v>
       </c>
       <c r="I25">
-        <v>1266.4000000000001</v>
+        <v>369.447</v>
       </c>
       <c r="J25">
-        <v>9560.7000000000007</v>
+        <v>2176.9699999999998</v>
       </c>
       <c r="K25">
-        <v>27</v>
+        <v>67.917000000000002</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1605.7</v>
+        <v>1936.4469999999999</v>
       </c>
       <c r="O25">
-        <v>12256.4</v>
+        <v>5866.4660000000003</v>
       </c>
       <c r="P25">
-        <v>9887.6</v>
+        <v>2244.8870000000002</v>
       </c>
       <c r="Q25">
-        <v>6991.2</v>
+        <v>99.546000000000006</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38984</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>9940.4</v>
+        <v>5918.259</v>
       </c>
       <c r="U25">
-        <v>9981.5</v>
+        <v>179.137</v>
       </c>
       <c r="V25">
-        <v>347.8</v>
+        <v>449.58100000000002</v>
       </c>
       <c r="W25">
-        <v>-88.1</v>
+        <v>-27.576000000000001</v>
       </c>
       <c r="X25">
-        <v>6781.5</v>
+        <v>-292.27499999999998</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1169.2</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="AA25">
-        <v>202.5</v>
+        <v>135.79400000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>1455.5</v>
+        <v>99.247</v>
       </c>
       <c r="D26">
-        <v>2294</v>
+        <v>1531.29</v>
       </c>
       <c r="E26">
-        <v>669.5</v>
+        <v>679.50699999999995</v>
       </c>
       <c r="F26">
-        <v>906</v>
+        <v>604.15800000000002</v>
       </c>
       <c r="G26">
-        <v>2169.6</v>
+        <v>1458.356</v>
       </c>
       <c r="H26">
-        <v>29341.5</v>
+        <v>11603.413</v>
       </c>
       <c r="I26">
-        <v>1297.5999999999999</v>
+        <v>419.65</v>
       </c>
       <c r="J26">
-        <v>11387.7</v>
+        <v>2129.8449999999998</v>
       </c>
       <c r="K26">
-        <v>13.1</v>
+        <v>0.432</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,120 +2884,120 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3157.5</v>
+        <v>1800.116</v>
       </c>
       <c r="O26">
-        <v>17719.8</v>
+        <v>5739.2749999999996</v>
       </c>
       <c r="P26">
-        <v>12072.5</v>
+        <v>2134.2860000000001</v>
       </c>
       <c r="Q26">
-        <v>-9420.6</v>
+        <v>3.0489999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>17400</v>
+        <v>9550</v>
       </c>
       <c r="T26">
-        <v>11621.7</v>
+        <v>5864.1379999999999</v>
       </c>
       <c r="U26">
-        <v>560.9</v>
+        <v>182.18600000000001</v>
       </c>
       <c r="V26">
-        <v>496.7</v>
+        <v>146.49799999999999</v>
       </c>
       <c r="W26">
-        <v>-88.3</v>
+        <v>-28.053000000000001</v>
       </c>
       <c r="X26">
-        <v>2197.8000000000002</v>
+        <v>-35.726999999999997</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-1256.5</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>1455.5</v>
+        <v>99.247</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39173</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>208.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D27">
-        <v>2448.6999999999998</v>
+        <v>1228.5999999999999</v>
       </c>
       <c r="E27">
-        <v>756.5</v>
+        <v>595.14</v>
       </c>
       <c r="F27">
-        <v>1076.9000000000001</v>
+        <v>458.4</v>
       </c>
       <c r="G27">
-        <v>2279.1999999999998</v>
+        <v>1340.7270000000001</v>
       </c>
       <c r="H27">
-        <v>29542.9</v>
+        <v>11639.911</v>
       </c>
       <c r="I27">
-        <v>2142.1</v>
+        <v>293.95999999999998</v>
       </c>
       <c r="J27">
-        <v>11443.4</v>
+        <v>2139.835</v>
       </c>
       <c r="K27">
-        <v>167.7</v>
+        <v>85.793999999999997</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-66.099999999999994</v>
       </c>
       <c r="M27">
-        <v>-1501.1</v>
+        <v>-0.1</v>
       </c>
       <c r="N27">
-        <v>3048.7</v>
+        <v>1467.502</v>
       </c>
       <c r="O27">
-        <v>17732.599999999999</v>
+        <v>5669.3680000000004</v>
       </c>
       <c r="P27">
-        <v>12286.4</v>
+        <v>2225.6289999999999</v>
       </c>
       <c r="Q27">
-        <v>-165.9</v>
+        <v>-62.8</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39173</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>11810.3</v>
+        <v>5970.5429999999997</v>
       </c>
       <c r="U27">
-        <v>395</v>
+        <v>119.364</v>
       </c>
       <c r="V27">
-        <v>-118.3</v>
+        <v>-172.7</v>
       </c>
       <c r="W27">
-        <v>-88.3</v>
+        <v>-22.7</v>
       </c>
       <c r="X27">
-        <v>80.3</v>
+        <v>213.4</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>208.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39264</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>329.9</v>
+        <v>185</v>
       </c>
       <c r="D28">
-        <v>3091.3</v>
+        <v>1676.2</v>
       </c>
       <c r="E28">
-        <v>962.9</v>
+        <v>731.04700000000003</v>
       </c>
       <c r="F28">
-        <v>1336.5</v>
+        <v>709.3</v>
       </c>
       <c r="G28">
-        <v>2489</v>
+        <v>2037.191</v>
       </c>
       <c r="H28">
-        <v>30118.6</v>
+        <v>13061.772000000001</v>
       </c>
       <c r="I28">
-        <v>2557.1</v>
+        <v>324.99799999999999</v>
       </c>
       <c r="J28">
-        <v>11185.4</v>
+        <v>2163.8229999999999</v>
       </c>
       <c r="K28">
-        <v>301</v>
+        <v>32.491999999999997</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3308.1</v>
+        <v>2205.1109999999999</v>
       </c>
       <c r="O28">
-        <v>17812.8</v>
+        <v>6529.4</v>
       </c>
       <c r="P28">
-        <v>11872</v>
+        <v>2824.4270000000001</v>
       </c>
       <c r="Q28">
-        <v>107.9</v>
+        <v>560.6</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39264</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>12305.8</v>
+        <v>6532.3720000000003</v>
       </c>
       <c r="U28">
-        <v>502.9</v>
+        <v>679.97</v>
       </c>
       <c r="V28">
-        <v>936.8</v>
+        <v>220.9</v>
       </c>
       <c r="W28">
-        <v>-88.3</v>
+        <v>-34.4</v>
       </c>
       <c r="X28">
-        <v>-673.5</v>
+        <v>464.1</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA28">
-        <v>329.9</v>
+        <v>184.9</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>287</v>
+        <v>134.6</v>
       </c>
       <c r="D29">
-        <v>2883.2</v>
+        <v>1685.4</v>
       </c>
       <c r="E29">
-        <v>833.4</v>
+        <v>666.50099999999998</v>
       </c>
       <c r="F29">
-        <v>1294.7</v>
+        <v>698.1</v>
       </c>
       <c r="G29">
-        <v>2916.4</v>
+        <v>1570.2059999999999</v>
       </c>
       <c r="H29">
-        <v>30677.7</v>
+        <v>13141.258</v>
       </c>
       <c r="I29">
-        <v>2447.8000000000002</v>
+        <v>315.77100000000002</v>
       </c>
       <c r="J29">
-        <v>10575.2</v>
+        <v>2246.13</v>
       </c>
       <c r="K29">
-        <v>1023.9</v>
+        <v>33.658999999999999</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4256.2</v>
+        <v>1560.828</v>
       </c>
       <c r="O29">
-        <v>17981.099999999999</v>
+        <v>6166.14</v>
       </c>
       <c r="P29">
-        <v>12320.2</v>
+        <v>2284.1080000000002</v>
       </c>
       <c r="Q29">
-        <v>468.4</v>
+        <v>-448.7</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="T29">
-        <v>12696.6</v>
+        <v>6975.1180000000004</v>
       </c>
       <c r="U29">
-        <v>971.3</v>
+        <v>231.334</v>
       </c>
       <c r="V29">
-        <v>326.89999999999998</v>
+        <v>280.39999999999998</v>
       </c>
       <c r="W29">
-        <v>-88.3</v>
+        <v>-28.8</v>
       </c>
       <c r="X29">
-        <v>225.4</v>
+        <v>-648.6</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>287</v>
+        <v>134.69999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>740.2</v>
+        <v>173.2</v>
       </c>
       <c r="D30">
-        <v>2579.6</v>
+        <v>1600.3</v>
       </c>
       <c r="E30">
-        <v>728.3</v>
+        <v>758.5</v>
       </c>
       <c r="F30">
-        <v>1068.7</v>
+        <v>621.79999999999995</v>
       </c>
       <c r="G30">
-        <v>2189.6999999999998</v>
+        <v>1776.8</v>
       </c>
       <c r="H30">
-        <v>30246.9</v>
+        <v>13451.6</v>
       </c>
       <c r="I30">
-        <v>1568.6</v>
+        <v>380.7</v>
       </c>
       <c r="J30">
-        <v>10598.7</v>
+        <v>2260.6</v>
       </c>
       <c r="K30">
-        <v>386.4</v>
+        <v>0.1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3399.3</v>
+        <v>1735.5</v>
       </c>
       <c r="O30">
-        <v>17059.599999999999</v>
+        <v>6258.3</v>
       </c>
       <c r="P30">
-        <v>11313.5</v>
+        <v>2264.9</v>
       </c>
       <c r="Q30">
-        <v>-552.70000000000005</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="S30">
-        <v>17200</v>
+        <v>9700</v>
       </c>
       <c r="T30">
-        <v>13187.3</v>
+        <v>7193.3</v>
       </c>
       <c r="U30">
-        <v>418.6</v>
+        <v>377</v>
       </c>
       <c r="V30">
-        <v>720.9</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="W30">
-        <v>-88.5</v>
+        <v>-28.9</v>
       </c>
       <c r="X30">
-        <v>-1128.5999999999999</v>
+        <v>-20.5</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-52.8</v>
       </c>
       <c r="AA30">
-        <v>740.2</v>
+        <v>173.2</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39537</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>278.10000000000002</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D31">
-        <v>2331.5</v>
+        <v>1356.6</v>
       </c>
       <c r="E31">
-        <v>779.3</v>
+        <v>684.2</v>
       </c>
       <c r="F31">
-        <v>795.8</v>
+        <v>521.6</v>
       </c>
       <c r="G31">
-        <v>2137</v>
+        <v>1489</v>
       </c>
       <c r="H31">
-        <v>30184.5</v>
+        <v>12796.4</v>
       </c>
       <c r="I31">
-        <v>2466.6</v>
+        <v>310.5</v>
       </c>
       <c r="J31">
-        <v>9527</v>
+        <v>2030.8</v>
       </c>
       <c r="K31">
-        <v>155.80000000000001</v>
+        <v>34.4</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M31">
-        <v>-249.5</v>
+        <v>-180.6</v>
       </c>
       <c r="N31">
-        <v>4128.3999999999996</v>
+        <v>1551.3</v>
       </c>
       <c r="O31">
-        <v>16521</v>
+        <v>5694.3</v>
       </c>
       <c r="P31">
-        <v>11118.3</v>
+        <v>2065.1999999999998</v>
       </c>
       <c r="Q31">
-        <v>-220.7</v>
+        <v>-258.3</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39537</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>13663.5</v>
+        <v>7102.1</v>
       </c>
       <c r="U31">
-        <v>197.9</v>
+        <v>118.7</v>
       </c>
       <c r="V31">
-        <v>315.2</v>
+        <v>-126.2</v>
       </c>
       <c r="W31">
-        <v>-88.5</v>
+        <v>-28.9</v>
       </c>
       <c r="X31">
-        <v>-289.89999999999998</v>
+        <v>-105.6</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="AA31">
-        <v>278.10000000000002</v>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39628</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>424.1</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="D32">
-        <v>3085.2</v>
+        <v>1757.4</v>
       </c>
       <c r="E32">
-        <v>984.9</v>
+        <v>921.9</v>
       </c>
       <c r="F32">
-        <v>1346.1</v>
+        <v>723.8</v>
       </c>
       <c r="G32">
-        <v>2887.5</v>
+        <v>1828.5</v>
       </c>
       <c r="H32">
-        <v>30560.9</v>
+        <v>13159.1</v>
       </c>
       <c r="I32">
-        <v>2907.6</v>
+        <v>405.8</v>
       </c>
       <c r="J32">
-        <v>9455.1</v>
+        <v>2056.9</v>
       </c>
       <c r="K32">
-        <v>13.4</v>
+        <v>21.4</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4382</v>
+        <v>1797.3</v>
       </c>
       <c r="O32">
-        <v>16764.3</v>
+        <v>5971.9</v>
       </c>
       <c r="P32">
-        <v>10866.1</v>
+        <v>2078.3000000000002</v>
       </c>
       <c r="Q32">
-        <v>595</v>
+        <v>165.7</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39628</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>13796.6</v>
+        <v>7187.2</v>
       </c>
       <c r="U32">
-        <v>792.9</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="V32">
-        <v>982.6</v>
+        <v>286.8</v>
       </c>
       <c r="W32">
-        <v>-88.5</v>
+        <v>-36.6</v>
       </c>
       <c r="X32">
-        <v>-234.8</v>
+        <v>-52.3</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-3.6</v>
       </c>
       <c r="AA32">
-        <v>424.1</v>
+        <v>79.400000000000006</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>338.3</v>
+        <v>171.4</v>
       </c>
       <c r="D33">
-        <v>2934.2</v>
+        <v>921.1</v>
       </c>
       <c r="E33">
-        <v>933.4</v>
+        <v>591.4</v>
       </c>
       <c r="F33">
-        <v>1220.2</v>
+        <v>396.7</v>
       </c>
       <c r="G33">
-        <v>2812.3</v>
+        <v>1364.4</v>
       </c>
       <c r="H33">
-        <v>30470.3</v>
+        <v>12320.1</v>
       </c>
       <c r="I33">
-        <v>2765.5</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="J33">
-        <v>8970.2999999999993</v>
+        <v>1994.2</v>
       </c>
       <c r="K33">
-        <v>12.6</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4422.6000000000004</v>
+        <v>1323.4</v>
       </c>
       <c r="O33">
-        <v>16380.3</v>
+        <v>5171.7</v>
       </c>
       <c r="P33">
-        <v>10572.3</v>
+        <v>1994.8</v>
       </c>
       <c r="Q33">
-        <v>-42.8</v>
+        <v>50.1</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>14090</v>
+        <v>7148.4</v>
       </c>
       <c r="U33">
-        <v>750.1</v>
+        <v>334.5</v>
       </c>
       <c r="V33">
-        <v>493.6</v>
+        <v>235</v>
       </c>
       <c r="W33">
-        <v>-88.6</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="X33">
-        <v>-398.7</v>
+        <v>-62.1</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-77.2</v>
       </c>
       <c r="AA33">
-        <v>338.3</v>
+        <v>171.3</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39810</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>76</v>
+        <v>93.6</v>
       </c>
       <c r="D34">
-        <v>2418.6999999999998</v>
+        <v>739.1</v>
       </c>
       <c r="E34">
-        <v>736</v>
+        <v>472.5</v>
       </c>
       <c r="F34">
-        <v>822.7</v>
+        <v>291.2</v>
       </c>
       <c r="G34">
-        <v>2766.3</v>
+        <v>1107.0999999999999</v>
       </c>
       <c r="H34">
-        <v>30109.8</v>
+        <v>10386.6</v>
       </c>
       <c r="I34">
-        <v>1616.8</v>
+        <v>170.5</v>
       </c>
       <c r="J34">
-        <v>8906.1</v>
+        <v>1752</v>
       </c>
       <c r="K34">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>4300.8999999999996</v>
+        <v>986.1</v>
       </c>
       <c r="O34">
-        <v>16374</v>
+        <v>4347.2</v>
       </c>
       <c r="P34">
-        <v>10585.9</v>
+        <v>1752.1</v>
       </c>
       <c r="Q34">
-        <v>307.8</v>
+        <v>-118.3</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39810</v>
       </c>
       <c r="S34">
-        <v>17750</v>
+        <v>14000</v>
       </c>
       <c r="T34">
-        <v>13735.8</v>
+        <v>6039.4</v>
       </c>
       <c r="U34">
-        <v>1057.9000000000001</v>
+        <v>216.2</v>
       </c>
       <c r="V34">
-        <v>539.9</v>
+        <v>15.9</v>
       </c>
       <c r="W34">
-        <v>-88.6</v>
+        <v>-36.9</v>
       </c>
       <c r="X34">
-        <v>-85.5</v>
+        <v>-46.9</v>
       </c>
       <c r="Y34">
-        <v>82.1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="AA34">
-        <v>76</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>151.4</v>
+        <v>75.7</v>
       </c>
       <c r="D35">
-        <v>2303.3000000000002</v>
+        <v>559</v>
       </c>
       <c r="E35">
-        <v>909.5</v>
+        <v>384.8</v>
       </c>
       <c r="F35">
-        <v>890.3</v>
+        <v>212.9</v>
       </c>
       <c r="G35">
-        <v>2338</v>
+        <v>888.5</v>
       </c>
       <c r="H35">
-        <v>29823.599999999999</v>
+        <v>9899.2999999999993</v>
       </c>
       <c r="I35">
-        <v>2440.1999999999998</v>
+        <v>146.9</v>
       </c>
       <c r="J35">
-        <v>8447</v>
+        <v>1568.2</v>
       </c>
       <c r="K35">
-        <v>628.1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-7.7</v>
       </c>
       <c r="M35">
-        <v>-1067.2</v>
+        <v>-0.1</v>
       </c>
       <c r="N35">
-        <v>4202.3999999999996</v>
+        <v>801.3</v>
       </c>
       <c r="O35">
-        <v>15935.5</v>
+        <v>3823.7</v>
       </c>
       <c r="P35">
-        <v>10335.6</v>
+        <v>1568.3</v>
       </c>
       <c r="Q35">
-        <v>-823.5</v>
+        <v>-121.8</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>13888.1</v>
+        <v>6075.6</v>
       </c>
       <c r="U35">
-        <v>234.4</v>
+        <v>94.4</v>
       </c>
       <c r="V35">
-        <v>-98.5</v>
+        <v>4.8</v>
       </c>
       <c r="W35">
-        <v>-88.7</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="X35">
-        <v>-534.79999999999995</v>
+        <v>-13.5</v>
       </c>
       <c r="Y35">
-        <v>203.9</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-67.2</v>
       </c>
       <c r="AA35">
-        <v>151.4</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>329.4</v>
+        <v>187.3</v>
       </c>
       <c r="D36">
-        <v>2948.3</v>
+        <v>798.9</v>
       </c>
       <c r="E36">
-        <v>932.3</v>
+        <v>541.5</v>
       </c>
       <c r="F36">
-        <v>1188.5</v>
+        <v>366.3</v>
       </c>
       <c r="G36">
-        <v>2600.4</v>
+        <v>1333.3</v>
       </c>
       <c r="H36">
-        <v>30061.599999999999</v>
+        <v>11046.2</v>
       </c>
       <c r="I36">
-        <v>2907.6</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="J36">
-        <v>8528</v>
+        <v>1628.6</v>
       </c>
       <c r="K36">
-        <v>19.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4080.3</v>
+        <v>1098.5</v>
       </c>
       <c r="O36">
-        <v>15916.6</v>
+        <v>4351.8999999999996</v>
       </c>
       <c r="P36">
-        <v>9811.7999999999993</v>
+        <v>1628.7</v>
       </c>
       <c r="Q36">
-        <v>255.8</v>
+        <v>201.8</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>14145</v>
+        <v>6694.3</v>
       </c>
       <c r="U36">
-        <v>490.2</v>
+        <v>296.2</v>
       </c>
       <c r="V36">
-        <v>926.5</v>
+        <v>347.7</v>
       </c>
       <c r="W36">
-        <v>-88.7</v>
+        <v>-44.6</v>
       </c>
       <c r="X36">
-        <v>-701.1</v>
+        <v>-48.5</v>
       </c>
       <c r="Y36">
-        <v>203.9</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-57.4</v>
       </c>
       <c r="AA36">
-        <v>329.4</v>
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40082</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-402.8</v>
+        <v>235.3</v>
       </c>
       <c r="D37">
-        <v>2841.6</v>
+        <v>853.7</v>
       </c>
       <c r="E37">
-        <v>821.5</v>
+        <v>501.2</v>
       </c>
       <c r="F37">
-        <v>1156.2</v>
+        <v>381.1</v>
       </c>
       <c r="G37">
-        <v>2286.9</v>
+        <v>1507.8</v>
       </c>
       <c r="H37">
-        <v>28751.599999999999</v>
+        <v>11491.2</v>
       </c>
       <c r="I37">
-        <v>2552.1</v>
+        <v>185.4</v>
       </c>
       <c r="J37">
-        <v>8176.4</v>
+        <v>1376.6</v>
       </c>
       <c r="K37">
-        <v>272.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3888.6</v>
+        <v>1397.9</v>
       </c>
       <c r="O37">
-        <v>15345.1</v>
+        <v>4457.1000000000004</v>
       </c>
       <c r="P37">
-        <v>9586.2999999999993</v>
+        <v>1676.7</v>
       </c>
       <c r="Q37">
-        <v>-80</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40082</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>13406.5</v>
+        <v>7034.1</v>
       </c>
       <c r="U37">
-        <v>410.2</v>
+        <v>565.1</v>
       </c>
       <c r="V37">
-        <v>460.2</v>
+        <v>314.3</v>
       </c>
       <c r="W37">
-        <v>-123.5</v>
+        <v>-44.4</v>
       </c>
       <c r="X37">
-        <v>-377.7</v>
+        <v>-29.6</v>
       </c>
       <c r="Y37">
-        <v>171.7</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AA37">
-        <v>-402.8</v>
+        <v>235.3</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40173</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>163.69999999999999</v>
+        <v>222.1</v>
       </c>
       <c r="D38">
-        <v>2486.1999999999998</v>
+        <v>820.8</v>
       </c>
       <c r="E38">
-        <v>705.9</v>
+        <v>566.70000000000005</v>
       </c>
       <c r="F38">
-        <v>966.2</v>
+        <v>345.2</v>
       </c>
       <c r="G38">
-        <v>2184.4</v>
+        <v>1707.9</v>
       </c>
       <c r="H38">
-        <v>28859.8</v>
+        <v>12021.1</v>
       </c>
       <c r="I38">
-        <v>1686.8</v>
+        <v>210.3</v>
       </c>
       <c r="J38">
-        <v>8161</v>
+        <v>1412.7</v>
       </c>
       <c r="K38">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3695.5</v>
+        <v>1580.9</v>
       </c>
       <c r="O38">
-        <v>15186.7</v>
+        <v>4928.3</v>
       </c>
       <c r="P38">
-        <v>9315.2999999999993</v>
+        <v>1713</v>
       </c>
       <c r="Q38">
-        <v>113.2</v>
+        <v>169.1</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40173</v>
       </c>
       <c r="S38">
-        <v>17700</v>
+        <v>14350</v>
       </c>
       <c r="T38">
-        <v>13673.1</v>
+        <v>7092.8</v>
       </c>
       <c r="U38">
-        <v>523.4</v>
+        <v>734.2</v>
       </c>
       <c r="V38">
-        <v>609.1</v>
+        <v>191.5</v>
       </c>
       <c r="W38">
-        <v>-123.5</v>
+        <v>-44.6</v>
       </c>
       <c r="X38">
-        <v>-393.4</v>
+        <v>-25.6</v>
       </c>
       <c r="Y38">
-        <v>179.5</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="AA38">
-        <v>163.69999999999999</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40264</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-117</v>
+        <v>104.6</v>
       </c>
       <c r="D39">
-        <v>2102.8000000000002</v>
+        <v>661</v>
       </c>
       <c r="E39">
-        <v>637.79999999999995</v>
+        <v>455.8</v>
       </c>
       <c r="F39">
-        <v>623.79999999999995</v>
+        <v>256.60000000000002</v>
       </c>
       <c r="G39">
-        <v>2372.5</v>
+        <v>1625.3</v>
       </c>
       <c r="H39">
-        <v>28461.1</v>
+        <v>11980.5</v>
       </c>
       <c r="I39">
-        <v>2358.1</v>
+        <v>184.5</v>
       </c>
       <c r="J39">
-        <v>8273.1</v>
+        <v>1436.6</v>
       </c>
       <c r="K39">
-        <v>54.7</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-5.5</v>
+        <v>-3</v>
       </c>
       <c r="M39">
-        <v>-502.9</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>4003.4</v>
+        <v>1477.1</v>
       </c>
       <c r="O39">
-        <v>15515.1</v>
+        <v>4815.3</v>
       </c>
       <c r="P39">
-        <v>9931.2999999999993</v>
+        <v>1736.6</v>
       </c>
       <c r="Q39">
-        <v>142.69999999999999</v>
+        <v>-77.599999999999994</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40264</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>12946</v>
+        <v>7165.2</v>
       </c>
       <c r="U39">
-        <v>666.1</v>
+        <v>656.6</v>
       </c>
       <c r="V39">
-        <v>-18.100000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="W39">
-        <v>-123.4</v>
+        <v>-44.7</v>
       </c>
       <c r="X39">
-        <v>398.7</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="Y39">
-        <v>166.7</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-98.7</v>
       </c>
       <c r="AA39">
-        <v>-117</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40355</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>195</v>
+        <v>237.2</v>
       </c>
       <c r="D40">
-        <v>2503.4</v>
+        <v>883.3</v>
       </c>
       <c r="E40">
-        <v>713.7</v>
+        <v>610.1</v>
       </c>
       <c r="F40">
-        <v>1046.8</v>
+        <v>408.5</v>
       </c>
       <c r="G40">
-        <v>2542.6999999999998</v>
+        <v>1923.5</v>
       </c>
       <c r="H40">
-        <v>28638.799999999999</v>
+        <v>12107.4</v>
       </c>
       <c r="I40">
-        <v>2511.6</v>
+        <v>178.4</v>
       </c>
       <c r="J40">
-        <v>8308.7999999999993</v>
+        <v>1433.3</v>
       </c>
       <c r="K40">
-        <v>209.6</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3805.7</v>
+        <v>1567.8</v>
       </c>
       <c r="O40">
-        <v>15370.8</v>
+        <v>4787.1000000000004</v>
       </c>
       <c r="P40">
-        <v>9133.7000000000007</v>
+        <v>1733.7</v>
       </c>
       <c r="Q40">
-        <v>114.7</v>
+        <v>142</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40355</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>13268</v>
+        <v>7320.3</v>
       </c>
       <c r="U40">
-        <v>780.8</v>
+        <v>798.6</v>
       </c>
       <c r="V40">
-        <v>1078</v>
+        <v>315.39999999999998</v>
       </c>
       <c r="W40">
-        <v>-1.9</v>
+        <v>-52</v>
       </c>
       <c r="X40">
-        <v>-848.5</v>
+        <v>-58.7</v>
       </c>
       <c r="Y40">
-        <v>164.7</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>42.7</v>
       </c>
       <c r="AA40">
-        <v>195</v>
+        <v>237.2</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40446</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>342.8</v>
+        <v>256.10000000000002</v>
       </c>
       <c r="D41">
-        <v>2753.5</v>
+        <v>875</v>
       </c>
       <c r="E41">
-        <v>694.2</v>
+        <v>530.9</v>
       </c>
       <c r="F41">
-        <v>1202.5</v>
+        <v>417.6</v>
       </c>
       <c r="G41">
-        <v>2640.5</v>
+        <v>1857.8</v>
       </c>
       <c r="H41">
-        <v>28675.3</v>
+        <v>12138.7</v>
       </c>
       <c r="I41">
-        <v>2664.1</v>
+        <v>195.6</v>
       </c>
       <c r="J41">
-        <v>7286.7</v>
+        <v>1447.2</v>
       </c>
       <c r="K41">
-        <v>232.7</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4310.5</v>
+        <v>1216.4000000000001</v>
       </c>
       <c r="O41">
-        <v>14899.7</v>
+        <v>4485.8</v>
       </c>
       <c r="P41">
-        <v>8790.7999999999993</v>
+        <v>1447.2</v>
       </c>
       <c r="Q41">
-        <v>-49.5</v>
+        <v>-35.1</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40446</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>13775.6</v>
+        <v>7652.9</v>
       </c>
       <c r="U41">
-        <v>731.3</v>
+        <v>763.5</v>
       </c>
       <c r="V41">
-        <v>433.3</v>
+        <v>337.4</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-34.200000000000003</v>
       </c>
       <c r="X41">
-        <v>-391.5</v>
+        <v>-386.9</v>
       </c>
       <c r="Y41">
-        <v>161.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="AA41">
-        <v>342.8</v>
+        <v>256.10000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40537</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>109.8</v>
+      </c>
+      <c r="D42">
+        <v>835.1</v>
+      </c>
+      <c r="E42">
+        <v>570.79999999999995</v>
+      </c>
+      <c r="F42">
+        <v>359.5</v>
+      </c>
+      <c r="G42">
+        <v>2220.9</v>
+      </c>
+      <c r="H42">
+        <v>12697.6</v>
+      </c>
+      <c r="I42">
+        <v>268.2</v>
+      </c>
+      <c r="J42">
+        <v>1959.6</v>
+      </c>
+      <c r="K42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1333.9</v>
+      </c>
+      <c r="O42">
+        <v>4855</v>
+      </c>
+      <c r="P42">
+        <v>1960.7</v>
+      </c>
+      <c r="Q42">
+        <v>454.1</v>
+      </c>
+      <c r="R42">
+        <v>40537</v>
+      </c>
+      <c r="S42">
+        <v>14490</v>
+      </c>
+      <c r="T42">
+        <v>7842.6</v>
+      </c>
+      <c r="U42">
+        <v>1217.5999999999999</v>
+      </c>
+      <c r="V42">
+        <v>6.5</v>
+      </c>
+      <c r="W42">
+        <v>-70.2</v>
+      </c>
+      <c r="X42">
+        <v>477.3</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>10.5</v>
+      </c>
+      <c r="AA42">
+        <v>109.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40628</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>82.9</v>
+      </c>
+      <c r="D43">
+        <v>690.4</v>
+      </c>
+      <c r="E43">
+        <v>493.8</v>
+      </c>
+      <c r="F43">
+        <v>263.2</v>
+      </c>
+      <c r="G43">
+        <v>2069.9</v>
+      </c>
+      <c r="H43">
+        <v>12869.3</v>
+      </c>
+      <c r="I43">
+        <v>220.6</v>
+      </c>
+      <c r="J43">
+        <v>2003.2</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>-10.3</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1310.9</v>
+      </c>
+      <c r="O43">
+        <v>4816.3</v>
+      </c>
+      <c r="P43">
+        <v>2005.2</v>
+      </c>
+      <c r="Q43">
+        <v>-135.9</v>
+      </c>
+      <c r="R43">
+        <v>40628</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>8053</v>
+      </c>
+      <c r="U43">
+        <v>1081.7</v>
+      </c>
+      <c r="V43">
+        <v>45</v>
+      </c>
+      <c r="W43">
+        <v>-52.1</v>
+      </c>
+      <c r="X43">
+        <v>-50.1</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-99.7</v>
+      </c>
+      <c r="AA43">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40719</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>222.8</v>
+      </c>
+      <c r="D44">
+        <v>933.6</v>
+      </c>
+      <c r="E44">
+        <v>629.6</v>
+      </c>
+      <c r="F44">
+        <v>409.7</v>
+      </c>
+      <c r="G44">
+        <v>2364.6999999999998</v>
+      </c>
+      <c r="H44">
+        <v>13104.1</v>
+      </c>
+      <c r="I44">
+        <v>229.5</v>
+      </c>
+      <c r="J44">
+        <v>1951.1</v>
+      </c>
+      <c r="K44">
+        <v>5.5</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1847.8</v>
+      </c>
+      <c r="O44">
+        <v>4917.3999999999996</v>
+      </c>
+      <c r="P44">
+        <v>2001.5</v>
+      </c>
+      <c r="Q44">
+        <v>102.5</v>
+      </c>
+      <c r="R44">
+        <v>40719</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>8186.7</v>
+      </c>
+      <c r="U44">
+        <v>1184.2</v>
+      </c>
+      <c r="V44">
+        <v>226.8</v>
+      </c>
+      <c r="W44">
+        <v>-60</v>
+      </c>
+      <c r="X44">
+        <v>-75.2</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>222.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40810</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>197.4</v>
+      </c>
+      <c r="D45">
+        <v>954.4</v>
+      </c>
+      <c r="E45">
+        <v>574</v>
+      </c>
+      <c r="F45">
+        <v>403.9</v>
+      </c>
+      <c r="G45">
+        <v>1997.5</v>
+      </c>
+      <c r="H45">
+        <v>12429.9</v>
+      </c>
+      <c r="I45">
+        <v>261.8</v>
+      </c>
+      <c r="J45">
+        <v>1901.3</v>
+      </c>
+      <c r="K45">
+        <v>1.6</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1285.5</v>
+      </c>
+      <c r="O45">
+        <v>4491.1000000000004</v>
+      </c>
+      <c r="P45">
+        <v>1947.7</v>
+      </c>
+      <c r="Q45">
+        <v>-197</v>
+      </c>
+      <c r="R45">
+        <v>40810</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>7938.8</v>
+      </c>
+      <c r="U45">
+        <v>987.2</v>
+      </c>
+      <c r="V45">
+        <v>331.6</v>
+      </c>
+      <c r="W45">
+        <v>-58</v>
+      </c>
+      <c r="X45">
+        <v>-431</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-29.8</v>
+      </c>
+      <c r="AA45">
+        <v>197.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>173.2</v>
+      </c>
+      <c r="D46">
+        <v>937.3</v>
+      </c>
+      <c r="E46">
+        <v>588.79999999999995</v>
+      </c>
+      <c r="F46">
+        <v>389.8</v>
+      </c>
+      <c r="G46">
+        <v>2118</v>
+      </c>
+      <c r="H46">
+        <v>12423.8</v>
+      </c>
+      <c r="I46">
+        <v>301.2</v>
+      </c>
+      <c r="J46">
+        <v>1914.9</v>
+      </c>
+      <c r="K46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1277.2</v>
+      </c>
+      <c r="O46">
+        <v>4733.6000000000004</v>
+      </c>
+      <c r="P46">
+        <v>1961.8</v>
+      </c>
+      <c r="Q46">
+        <v>91.7</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>15263</v>
+      </c>
+      <c r="T46">
+        <v>7690.2</v>
+      </c>
+      <c r="U46">
+        <v>1078.9000000000001</v>
+      </c>
+      <c r="V46">
+        <v>264.7</v>
+      </c>
+      <c r="W46">
+        <v>-58</v>
+      </c>
+      <c r="X46">
+        <v>-108.8</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>28.9</v>
+      </c>
+      <c r="AA46">
+        <v>173.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>79.5</v>
+      </c>
+      <c r="D47">
+        <v>691.4</v>
+      </c>
+      <c r="E47">
+        <v>512.4</v>
+      </c>
+      <c r="F47">
+        <v>252.6</v>
+      </c>
+      <c r="G47">
+        <v>1874.2</v>
+      </c>
+      <c r="H47">
+        <v>12436.2</v>
+      </c>
+      <c r="I47">
+        <v>205.6</v>
+      </c>
+      <c r="J47">
+        <v>1950.4</v>
+      </c>
+      <c r="K47">
+        <v>3.6</v>
+      </c>
+      <c r="L47">
+        <v>-10.8</v>
+      </c>
+      <c r="M47">
+        <v>-0.1</v>
+      </c>
+      <c r="N47">
+        <v>1060</v>
+      </c>
+      <c r="O47">
+        <v>4588.3</v>
+      </c>
+      <c r="P47">
+        <v>1998.6</v>
+      </c>
+      <c r="Q47">
+        <v>-242.6</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>7847.9</v>
+      </c>
+      <c r="U47">
+        <v>836.3</v>
+      </c>
+      <c r="V47">
+        <v>50.4</v>
+      </c>
+      <c r="W47">
+        <v>-57.8</v>
+      </c>
+      <c r="X47">
+        <v>-45.9</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-116</v>
+      </c>
+      <c r="AA47">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>105.1</v>
+      </c>
+      <c r="D48">
+        <v>999.4</v>
+      </c>
+      <c r="E48">
+        <v>739.9</v>
+      </c>
+      <c r="F48">
+        <v>427.9</v>
+      </c>
+      <c r="G48">
+        <v>1833.6</v>
+      </c>
+      <c r="H48">
+        <v>16236.7</v>
+      </c>
+      <c r="I48">
+        <v>492</v>
+      </c>
+      <c r="J48">
+        <v>4097.8999999999996</v>
+      </c>
+      <c r="K48">
+        <v>119.4</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2286.1</v>
+      </c>
+      <c r="O48">
+        <v>8354.7999999999993</v>
+      </c>
+      <c r="P48">
+        <v>4902</v>
+      </c>
+      <c r="Q48">
+        <v>-320.3</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>7881.9</v>
+      </c>
+      <c r="U48">
+        <v>516</v>
+      </c>
+      <c r="V48">
+        <v>347</v>
+      </c>
+      <c r="W48">
+        <v>-58.1</v>
+      </c>
+      <c r="X48">
+        <v>1629.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z48">
+        <v>6.5</v>
+      </c>
+      <c r="AA48">
+        <v>105.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>198.4</v>
+      </c>
+      <c r="D49">
+        <v>1195.5</v>
+      </c>
+      <c r="E49">
+        <v>642.6</v>
+      </c>
+      <c r="F49">
+        <v>508.5</v>
+      </c>
+      <c r="G49">
+        <v>1780.8</v>
+      </c>
+      <c r="H49">
+        <v>16466.5</v>
+      </c>
+      <c r="I49">
+        <v>488.9</v>
+      </c>
+      <c r="J49">
+        <v>3438.1</v>
+      </c>
+      <c r="K49">
+        <v>27.8</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2725.2</v>
+      </c>
+      <c r="O49">
+        <v>8187.3</v>
+      </c>
+      <c r="P49">
+        <v>4698.2</v>
+      </c>
+      <c r="Q49">
+        <v>69.7</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>8279.2000000000007</v>
+      </c>
+      <c r="U49">
+        <v>585.70000000000005</v>
+      </c>
+      <c r="V49">
+        <v>442.6</v>
+      </c>
+      <c r="W49">
+        <v>-58.1</v>
+      </c>
+      <c r="X49">
+        <v>-326.3</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>3.3</v>
+      </c>
+      <c r="AA49">
+        <v>198.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>1030.2</v>
+      </c>
+      <c r="E50">
+        <v>660.5</v>
+      </c>
+      <c r="F50">
+        <v>383.6</v>
+      </c>
+      <c r="G50">
+        <v>1748</v>
+      </c>
+      <c r="H50">
+        <v>16212.2</v>
+      </c>
+      <c r="I50">
+        <v>490.3</v>
+      </c>
+      <c r="J50">
+        <v>3422.5</v>
+      </c>
+      <c r="K50">
+        <v>13.2</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2598.6999999999998</v>
+      </c>
+      <c r="O50">
+        <v>8220.6</v>
+      </c>
+      <c r="P50">
+        <v>4668.1000000000004</v>
+      </c>
+      <c r="Q50">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="R50">
+        <v>41272</v>
+      </c>
+      <c r="S50">
+        <v>18700</v>
+      </c>
+      <c r="T50">
+        <v>7991.6</v>
+      </c>
+      <c r="U50">
+        <v>624</v>
+      </c>
+      <c r="V50">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="W50">
+        <v>-58.2</v>
+      </c>
+      <c r="X50">
+        <v>-85.9</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AA50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>28.5</v>
+      </c>
+      <c r="D51">
+        <v>828.5</v>
+      </c>
+      <c r="E51">
+        <v>572.20000000000005</v>
+      </c>
+      <c r="F51">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="G51">
+        <v>1689.7</v>
+      </c>
+      <c r="H51">
+        <v>15942.7</v>
+      </c>
+      <c r="I51">
+        <v>455.5</v>
+      </c>
+      <c r="J51">
+        <v>3390.8</v>
+      </c>
+      <c r="K51">
+        <v>13.3</v>
+      </c>
+      <c r="L51">
+        <v>-15</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2614.8000000000002</v>
+      </c>
+      <c r="O51">
+        <v>8145.8</v>
+      </c>
+      <c r="P51">
+        <v>4651.2</v>
+      </c>
+      <c r="Q51">
+        <v>-112.5</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7796.9</v>
+      </c>
+      <c r="U51">
+        <v>511.5</v>
+      </c>
+      <c r="V51">
+        <v>118.4</v>
+      </c>
+      <c r="W51">
+        <v>-58.2</v>
+      </c>
+      <c r="X51">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-109.4</v>
+      </c>
+      <c r="AA51">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>267.3</v>
+      </c>
+      <c r="D52">
+        <v>1178</v>
+      </c>
+      <c r="E52">
+        <v>693.4</v>
+      </c>
+      <c r="F52">
+        <v>493.9</v>
+      </c>
+      <c r="G52">
+        <v>2071.3000000000002</v>
+      </c>
+      <c r="H52">
+        <v>16116.9</v>
+      </c>
+      <c r="I52">
+        <v>1363.1</v>
+      </c>
+      <c r="J52">
+        <v>3295.7</v>
+      </c>
+      <c r="K52">
+        <v>13.8</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2919.9</v>
+      </c>
+      <c r="O52">
+        <v>8106.1</v>
+      </c>
+      <c r="P52">
+        <v>4568.1000000000004</v>
+      </c>
+      <c r="Q52">
+        <v>290.10000000000002</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>8010.8</v>
+      </c>
+      <c r="U52">
+        <v>801.6</v>
+      </c>
+      <c r="V52">
+        <v>472.6</v>
+      </c>
+      <c r="W52">
+        <v>-58.6</v>
+      </c>
+      <c r="X52">
+        <v>-108.9</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>6.5</v>
+      </c>
+      <c r="AA52">
+        <v>267.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="D53">
+        <v>1171.2</v>
+      </c>
+      <c r="E53">
+        <v>658.6</v>
+      </c>
+      <c r="F53">
+        <v>501.2</v>
+      </c>
+      <c r="G53">
+        <v>1596.1</v>
+      </c>
+      <c r="H53">
+        <v>15772.8</v>
+      </c>
+      <c r="I53">
+        <v>1394.6</v>
+      </c>
+      <c r="J53">
+        <v>3253.5</v>
+      </c>
+      <c r="K53">
+        <v>577.5</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2287.9</v>
+      </c>
+      <c r="O53">
+        <v>7454.1</v>
+      </c>
+      <c r="P53">
+        <v>3891.8</v>
+      </c>
+      <c r="Q53">
+        <v>-394.7</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>8318.7000000000007</v>
+      </c>
+      <c r="U53">
+        <v>406.9</v>
+      </c>
+      <c r="V53">
+        <v>439</v>
+      </c>
+      <c r="W53">
+        <v>-58.9</v>
+      </c>
+      <c r="X53">
+        <v>-780.7</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AA53">
+        <v>134.30000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="D54">
+        <v>1028.4000000000001</v>
+      </c>
+      <c r="E54">
+        <v>603.6</v>
+      </c>
+      <c r="F54">
+        <v>386.7</v>
+      </c>
+      <c r="G54">
+        <v>1537.7</v>
+      </c>
+      <c r="H54">
+        <v>15580.1</v>
+      </c>
+      <c r="I54">
+        <v>599.70000000000005</v>
+      </c>
+      <c r="J54">
+        <v>3213</v>
+      </c>
+      <c r="K54">
+        <v>525.1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2161.4</v>
+      </c>
+      <c r="O54">
+        <v>6950</v>
+      </c>
+      <c r="P54">
+        <v>3799.9</v>
+      </c>
+      <c r="Q54">
+        <v>35.4</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>17650</v>
+      </c>
+      <c r="T54">
+        <v>8630.1</v>
+      </c>
+      <c r="U54">
+        <v>442.3</v>
+      </c>
+      <c r="V54">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="W54">
+        <v>-58.9</v>
+      </c>
+      <c r="X54">
+        <v>-134.4</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>63.5</v>
+      </c>
+      <c r="AA54">
+        <v>137.19999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>163.4</v>
+      </c>
+      <c r="D55">
+        <v>816</v>
+      </c>
+      <c r="E55">
+        <v>552.1</v>
+      </c>
+      <c r="F55">
+        <v>292.8</v>
+      </c>
+      <c r="G55">
+        <v>1484.3</v>
+      </c>
+      <c r="H55">
+        <v>15365.8</v>
+      </c>
+      <c r="I55">
+        <v>1264</v>
+      </c>
+      <c r="J55">
+        <v>3162.3</v>
+      </c>
+      <c r="K55">
+        <v>615.4</v>
+      </c>
+      <c r="L55">
+        <v>-54.3</v>
+      </c>
+      <c r="M55">
+        <v>-46.9</v>
+      </c>
+      <c r="N55">
+        <v>2071.8000000000002</v>
+      </c>
+      <c r="O55">
+        <v>6741.1</v>
+      </c>
+      <c r="P55">
+        <v>3792.7</v>
+      </c>
+      <c r="Q55">
+        <v>-104.7</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>8624.7000000000007</v>
+      </c>
+      <c r="U55">
+        <v>337.6</v>
+      </c>
+      <c r="V55">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="W55">
+        <v>-68.2</v>
+      </c>
+      <c r="X55">
+        <v>-80.2</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-95.4</v>
+      </c>
+      <c r="AA55">
+        <v>163.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="D56">
+        <v>1188.5</v>
+      </c>
+      <c r="E56">
+        <v>730.9</v>
+      </c>
+      <c r="F56">
+        <v>505.2</v>
+      </c>
+      <c r="G56">
+        <v>1800.3</v>
+      </c>
+      <c r="H56">
+        <v>15873</v>
+      </c>
+      <c r="I56">
+        <v>1512</v>
+      </c>
+      <c r="J56">
+        <v>3208.9</v>
+      </c>
+      <c r="K56">
+        <v>451.6</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2111.6999999999998</v>
+      </c>
+      <c r="O56">
+        <v>6887.9</v>
+      </c>
+      <c r="P56">
+        <v>3660.5</v>
+      </c>
+      <c r="Q56">
+        <v>168.4</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>8985.1</v>
+      </c>
+      <c r="U56">
+        <v>506</v>
+      </c>
+      <c r="V56">
+        <v>426.3</v>
+      </c>
+      <c r="W56">
+        <v>-68.5</v>
+      </c>
+      <c r="X56">
+        <v>-242.9</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>22.9</v>
+      </c>
+      <c r="AA56">
+        <v>290.89999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-34.4</v>
+      </c>
+      <c r="D57">
+        <v>1168</v>
+      </c>
+      <c r="E57">
+        <v>578.29999999999995</v>
+      </c>
+      <c r="F57">
+        <v>501.4</v>
+      </c>
+      <c r="G57">
+        <v>1811.9</v>
+      </c>
+      <c r="H57">
+        <v>14833.4</v>
+      </c>
+      <c r="I57">
+        <v>1361.7</v>
+      </c>
+      <c r="J57">
+        <v>2345.8000000000002</v>
+      </c>
+      <c r="K57">
+        <v>305.3</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2619.8000000000002</v>
+      </c>
+      <c r="O57">
+        <v>6411</v>
+      </c>
+      <c r="P57">
+        <v>3457.1</v>
+      </c>
+      <c r="Q57">
+        <v>216.1</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>8422.4</v>
+      </c>
+      <c r="U57">
+        <v>722.1</v>
+      </c>
+      <c r="V57">
+        <v>482.4</v>
+      </c>
+      <c r="W57">
+        <v>-68.400000000000006</v>
+      </c>
+      <c r="X57">
+        <v>-190.1</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>31.9</v>
+      </c>
+      <c r="AA57">
+        <v>-34.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>94.1</v>
+      </c>
+      <c r="D58">
+        <v>973.8</v>
+      </c>
+      <c r="E58">
+        <v>527.70000000000005</v>
+      </c>
+      <c r="F58">
+        <v>357.8</v>
+      </c>
+      <c r="G58">
+        <v>1577.1</v>
+      </c>
+      <c r="H58">
+        <v>13980.1</v>
+      </c>
+      <c r="I58">
+        <v>618</v>
+      </c>
+      <c r="J58">
+        <v>2321.3000000000002</v>
+      </c>
+      <c r="K58">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2324.9</v>
+      </c>
+      <c r="O58">
+        <v>6094</v>
+      </c>
+      <c r="P58">
+        <v>3183.3</v>
+      </c>
+      <c r="Q58">
+        <v>-97.5</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>17400</v>
+      </c>
+      <c r="T58">
+        <v>7886.1</v>
+      </c>
+      <c r="U58">
+        <v>624.6</v>
+      </c>
+      <c r="V58">
+        <v>214.2</v>
+      </c>
+      <c r="W58">
+        <v>-68.5</v>
+      </c>
+      <c r="X58">
+        <v>-288.8</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>35</v>
+      </c>
+      <c r="AA58">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="D59">
+        <v>700</v>
+      </c>
+      <c r="E59">
+        <v>459.1</v>
+      </c>
+      <c r="F59">
+        <v>245.2</v>
+      </c>
+      <c r="G59">
+        <v>1278.0999999999999</v>
+      </c>
+      <c r="H59">
+        <v>12951.7</v>
+      </c>
+      <c r="I59">
+        <v>1092.7</v>
+      </c>
+      <c r="J59">
+        <v>2310.1</v>
+      </c>
+      <c r="K59">
+        <v>231.9</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-7.1</v>
+      </c>
+      <c r="N59">
+        <v>2254.1</v>
+      </c>
+      <c r="O59">
+        <v>5666.6</v>
+      </c>
+      <c r="P59">
+        <v>3278.2</v>
+      </c>
+      <c r="Q59">
+        <v>-307</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>7285.1</v>
+      </c>
+      <c r="U59">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="V59">
+        <v>-202.6</v>
+      </c>
+      <c r="W59">
+        <v>-76.2</v>
+      </c>
+      <c r="X59">
+        <v>123.3</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-107.5</v>
+      </c>
+      <c r="AA59">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>229</v>
+      </c>
+      <c r="D60">
+        <v>1005.7</v>
+      </c>
+      <c r="E60">
+        <v>595.1</v>
+      </c>
+      <c r="F60">
+        <v>425.8</v>
+      </c>
+      <c r="G60">
+        <v>1476.2</v>
+      </c>
+      <c r="H60">
+        <v>13397.2</v>
+      </c>
+      <c r="I60">
+        <v>1307</v>
+      </c>
+      <c r="J60">
+        <v>2305.1999999999998</v>
+      </c>
+      <c r="K60">
+        <v>112.2</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2349.5</v>
+      </c>
+      <c r="O60">
+        <v>5765.8</v>
+      </c>
+      <c r="P60">
+        <v>3155.9</v>
+      </c>
+      <c r="Q60">
+        <v>96.2</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>7631.4</v>
+      </c>
+      <c r="U60">
+        <v>413.8</v>
+      </c>
+      <c r="V60">
+        <v>400.7</v>
+      </c>
+      <c r="W60">
+        <v>-76.099999999999994</v>
+      </c>
+      <c r="X60">
+        <v>-248</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>42.3</v>
+      </c>
+      <c r="AA60">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D61">
+        <v>1017.4</v>
+      </c>
+      <c r="E61">
+        <v>524.6</v>
+      </c>
+      <c r="F61">
+        <v>431.5</v>
+      </c>
+      <c r="G61">
+        <v>1351.6</v>
+      </c>
+      <c r="H61">
+        <v>12645.3</v>
+      </c>
+      <c r="I61">
+        <v>1173.7</v>
+      </c>
+      <c r="J61">
+        <v>2953.9</v>
+      </c>
+      <c r="K61">
+        <v>48.2</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1413.3</v>
+      </c>
+      <c r="O61">
+        <v>5372.6</v>
+      </c>
+      <c r="P61">
+        <v>3002.1</v>
+      </c>
+      <c r="Q61">
+        <v>-20.2</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>7272.7</v>
+      </c>
+      <c r="U61">
+        <v>393.6</v>
+      </c>
+      <c r="V61">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="W61">
+        <v>-75.8</v>
+      </c>
+      <c r="X61">
+        <v>-202.9</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>8.9</v>
+      </c>
+      <c r="AA61">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D62">
+        <v>844.4</v>
+      </c>
+      <c r="E62">
+        <v>424.7</v>
+      </c>
+      <c r="F62">
+        <v>301.5</v>
+      </c>
+      <c r="G62">
+        <v>1258.8</v>
+      </c>
+      <c r="H62">
+        <v>12276.3</v>
+      </c>
+      <c r="I62">
+        <v>559.6</v>
+      </c>
+      <c r="J62">
+        <v>2908.7</v>
+      </c>
+      <c r="K62">
+        <v>28.7</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1217.2</v>
+      </c>
+      <c r="O62">
+        <v>5213.2</v>
+      </c>
+      <c r="P62">
+        <v>2937.4</v>
+      </c>
+      <c r="Q62">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>17500</v>
+      </c>
+      <c r="T62">
+        <v>7063.1</v>
+      </c>
+      <c r="U62">
+        <v>430.9</v>
+      </c>
+      <c r="V62">
+        <v>236.9</v>
+      </c>
+      <c r="W62">
+        <v>-75.3</v>
+      </c>
+      <c r="X62">
+        <v>-203.9</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>54.7</v>
+      </c>
+      <c r="AA62">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="D63">
+        <v>657.2</v>
+      </c>
+      <c r="E63">
+        <v>456.5</v>
+      </c>
+      <c r="F63">
+        <v>243.2</v>
+      </c>
+      <c r="G63">
+        <v>3762.8</v>
+      </c>
+      <c r="H63">
+        <v>15210.3</v>
+      </c>
+      <c r="I63">
+        <v>1139.9000000000001</v>
+      </c>
+      <c r="J63">
+        <v>2973.4</v>
+      </c>
+      <c r="K63">
+        <v>63.5</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-10.3</v>
+      </c>
+      <c r="N63">
+        <v>1221.9000000000001</v>
+      </c>
+      <c r="O63">
+        <v>5291</v>
+      </c>
+      <c r="P63">
+        <v>3036.9</v>
+      </c>
+      <c r="Q63">
+        <v>2172</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>9919.2999999999993</v>
+      </c>
+      <c r="U63">
+        <v>2602.9</v>
+      </c>
+      <c r="V63">
+        <v>-88.3</v>
+      </c>
+      <c r="W63">
+        <v>-88.3</v>
+      </c>
+      <c r="X63">
+        <v>2458.5</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-130.30000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>162.69999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>172.3</v>
+      </c>
+      <c r="D64">
+        <v>986.2</v>
+      </c>
+      <c r="E64">
+        <v>563.1</v>
+      </c>
+      <c r="F64">
+        <v>424</v>
+      </c>
+      <c r="G64">
+        <v>4070.7</v>
+      </c>
+      <c r="H64">
+        <v>15322.2</v>
+      </c>
+      <c r="I64">
+        <v>1294.7</v>
+      </c>
+      <c r="J64">
+        <v>2680.3</v>
+      </c>
+      <c r="K64">
+        <v>47.1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1667.6</v>
+      </c>
+      <c r="O64">
+        <v>5450.3</v>
+      </c>
+      <c r="P64">
+        <v>3027.3</v>
+      </c>
+      <c r="Q64">
+        <v>387.4</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>9871.9</v>
+      </c>
+      <c r="U64">
+        <v>2990.3</v>
+      </c>
+      <c r="V64">
+        <v>370.7</v>
+      </c>
+      <c r="W64">
+        <v>-88.2</v>
+      </c>
+      <c r="X64">
+        <v>-119.9</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>50.8</v>
+      </c>
+      <c r="AA64">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>202.5</v>
+      </c>
+      <c r="D65">
+        <v>947.6</v>
+      </c>
+      <c r="E65">
+        <v>474.4</v>
+      </c>
+      <c r="F65">
+        <v>406.3</v>
+      </c>
+      <c r="G65">
+        <v>10947.7</v>
+      </c>
+      <c r="H65">
+        <v>22196.799999999999</v>
+      </c>
+      <c r="I65">
+        <v>1266.4000000000001</v>
+      </c>
+      <c r="J65">
+        <v>9560.7000000000007</v>
+      </c>
+      <c r="K65">
+        <v>27</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1605.7</v>
+      </c>
+      <c r="O65">
+        <v>12256.4</v>
+      </c>
+      <c r="P65">
+        <v>9887.6</v>
+      </c>
+      <c r="Q65">
+        <v>6991.2</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>9940.4</v>
+      </c>
+      <c r="U65">
+        <v>9981.5</v>
+      </c>
+      <c r="V65">
+        <v>347.8</v>
+      </c>
+      <c r="W65">
+        <v>-88.1</v>
+      </c>
+      <c r="X65">
+        <v>6781.5</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>1169.2</v>
+      </c>
+      <c r="AA65">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>1455.5</v>
+      </c>
+      <c r="D66">
+        <v>2294</v>
+      </c>
+      <c r="E66">
+        <v>669.5</v>
+      </c>
+      <c r="F66">
+        <v>906</v>
+      </c>
+      <c r="G66">
+        <v>2169.6</v>
+      </c>
+      <c r="H66">
+        <v>29341.5</v>
+      </c>
+      <c r="I66">
+        <v>1297.5999999999999</v>
+      </c>
+      <c r="J66">
+        <v>11387.7</v>
+      </c>
+      <c r="K66">
+        <v>13.1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3157.5</v>
+      </c>
+      <c r="O66">
+        <v>17719.8</v>
+      </c>
+      <c r="P66">
+        <v>12072.5</v>
+      </c>
+      <c r="Q66">
+        <v>-9420.6</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>17400</v>
+      </c>
+      <c r="T66">
+        <v>11621.7</v>
+      </c>
+      <c r="U66">
+        <v>560.9</v>
+      </c>
+      <c r="V66">
+        <v>496.7</v>
+      </c>
+      <c r="W66">
+        <v>-88.3</v>
+      </c>
+      <c r="X66">
+        <v>2197.8000000000002</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-1256.5</v>
+      </c>
+      <c r="AA66">
+        <v>1455.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>208.5</v>
+      </c>
+      <c r="D67">
+        <v>2448.6999999999998</v>
+      </c>
+      <c r="E67">
+        <v>756.5</v>
+      </c>
+      <c r="F67">
+        <v>1076.9000000000001</v>
+      </c>
+      <c r="G67">
+        <v>2279.1999999999998</v>
+      </c>
+      <c r="H67">
+        <v>29542.9</v>
+      </c>
+      <c r="I67">
+        <v>2142.1</v>
+      </c>
+      <c r="J67">
+        <v>11443.4</v>
+      </c>
+      <c r="K67">
+        <v>167.7</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1501.1</v>
+      </c>
+      <c r="N67">
+        <v>3048.7</v>
+      </c>
+      <c r="O67">
+        <v>17732.599999999999</v>
+      </c>
+      <c r="P67">
+        <v>12286.4</v>
+      </c>
+      <c r="Q67">
+        <v>-165.9</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>11810.3</v>
+      </c>
+      <c r="U67">
+        <v>395</v>
+      </c>
+      <c r="V67">
+        <v>-118.3</v>
+      </c>
+      <c r="W67">
+        <v>-88.3</v>
+      </c>
+      <c r="X67">
+        <v>80.3</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>208.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>329.9</v>
+      </c>
+      <c r="D68">
+        <v>3091.3</v>
+      </c>
+      <c r="E68">
+        <v>962.9</v>
+      </c>
+      <c r="F68">
+        <v>1336.5</v>
+      </c>
+      <c r="G68">
+        <v>2489</v>
+      </c>
+      <c r="H68">
+        <v>30118.6</v>
+      </c>
+      <c r="I68">
+        <v>2557.1</v>
+      </c>
+      <c r="J68">
+        <v>11185.4</v>
+      </c>
+      <c r="K68">
+        <v>301</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3308.1</v>
+      </c>
+      <c r="O68">
+        <v>17812.8</v>
+      </c>
+      <c r="P68">
+        <v>11872</v>
+      </c>
+      <c r="Q68">
+        <v>107.9</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>12305.8</v>
+      </c>
+      <c r="U68">
+        <v>502.9</v>
+      </c>
+      <c r="V68">
+        <v>936.8</v>
+      </c>
+      <c r="W68">
+        <v>-88.3</v>
+      </c>
+      <c r="X68">
+        <v>-673.5</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>329.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>287</v>
+      </c>
+      <c r="D69">
+        <v>2883.2</v>
+      </c>
+      <c r="E69">
+        <v>833.4</v>
+      </c>
+      <c r="F69">
+        <v>1294.7</v>
+      </c>
+      <c r="G69">
+        <v>2916.4</v>
+      </c>
+      <c r="H69">
+        <v>30677.7</v>
+      </c>
+      <c r="I69">
+        <v>2447.8000000000002</v>
+      </c>
+      <c r="J69">
+        <v>10575.2</v>
+      </c>
+      <c r="K69">
+        <v>1023.9</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4256.2</v>
+      </c>
+      <c r="O69">
+        <v>17981.099999999999</v>
+      </c>
+      <c r="P69">
+        <v>12320.2</v>
+      </c>
+      <c r="Q69">
+        <v>468.4</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>12696.6</v>
+      </c>
+      <c r="U69">
+        <v>971.3</v>
+      </c>
+      <c r="V69">
+        <v>326.89999999999998</v>
+      </c>
+      <c r="W69">
+        <v>-88.3</v>
+      </c>
+      <c r="X69">
+        <v>225.4</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>740.2</v>
+      </c>
+      <c r="D70">
+        <v>2579.6</v>
+      </c>
+      <c r="E70">
+        <v>728.3</v>
+      </c>
+      <c r="F70">
+        <v>1068.7</v>
+      </c>
+      <c r="G70">
+        <v>2189.6999999999998</v>
+      </c>
+      <c r="H70">
+        <v>30246.9</v>
+      </c>
+      <c r="I70">
+        <v>1568.6</v>
+      </c>
+      <c r="J70">
+        <v>10598.7</v>
+      </c>
+      <c r="K70">
+        <v>386.4</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3399.3</v>
+      </c>
+      <c r="O70">
+        <v>17059.599999999999</v>
+      </c>
+      <c r="P70">
+        <v>11313.5</v>
+      </c>
+      <c r="Q70">
+        <v>-552.70000000000005</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>17200</v>
+      </c>
+      <c r="T70">
+        <v>13187.3</v>
+      </c>
+      <c r="U70">
+        <v>418.6</v>
+      </c>
+      <c r="V70">
+        <v>720.9</v>
+      </c>
+      <c r="W70">
+        <v>-88.5</v>
+      </c>
+      <c r="X70">
+        <v>-1128.5999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>740.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>278.10000000000002</v>
+      </c>
+      <c r="D71">
+        <v>2331.5</v>
+      </c>
+      <c r="E71">
+        <v>779.3</v>
+      </c>
+      <c r="F71">
+        <v>795.8</v>
+      </c>
+      <c r="G71">
+        <v>2137</v>
+      </c>
+      <c r="H71">
+        <v>30184.5</v>
+      </c>
+      <c r="I71">
+        <v>2466.6</v>
+      </c>
+      <c r="J71">
+        <v>9527</v>
+      </c>
+      <c r="K71">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-249.5</v>
+      </c>
+      <c r="N71">
+        <v>4128.3999999999996</v>
+      </c>
+      <c r="O71">
+        <v>16521</v>
+      </c>
+      <c r="P71">
+        <v>11118.3</v>
+      </c>
+      <c r="Q71">
+        <v>-220.7</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>13663.5</v>
+      </c>
+      <c r="U71">
+        <v>197.9</v>
+      </c>
+      <c r="V71">
+        <v>315.2</v>
+      </c>
+      <c r="W71">
+        <v>-88.5</v>
+      </c>
+      <c r="X71">
+        <v>-289.89999999999998</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>278.10000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>424.1</v>
+      </c>
+      <c r="D72">
+        <v>3085.2</v>
+      </c>
+      <c r="E72">
+        <v>984.9</v>
+      </c>
+      <c r="F72">
+        <v>1346.1</v>
+      </c>
+      <c r="G72">
+        <v>2887.5</v>
+      </c>
+      <c r="H72">
+        <v>30560.9</v>
+      </c>
+      <c r="I72">
+        <v>2907.6</v>
+      </c>
+      <c r="J72">
+        <v>9455.1</v>
+      </c>
+      <c r="K72">
+        <v>13.4</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4382</v>
+      </c>
+      <c r="O72">
+        <v>16764.3</v>
+      </c>
+      <c r="P72">
+        <v>10866.1</v>
+      </c>
+      <c r="Q72">
+        <v>595</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>13796.6</v>
+      </c>
+      <c r="U72">
+        <v>792.9</v>
+      </c>
+      <c r="V72">
+        <v>982.6</v>
+      </c>
+      <c r="W72">
+        <v>-88.5</v>
+      </c>
+      <c r="X72">
+        <v>-234.8</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>424.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>338.3</v>
+      </c>
+      <c r="D73">
+        <v>2934.2</v>
+      </c>
+      <c r="E73">
+        <v>933.4</v>
+      </c>
+      <c r="F73">
+        <v>1220.2</v>
+      </c>
+      <c r="G73">
+        <v>2812.3</v>
+      </c>
+      <c r="H73">
+        <v>30470.3</v>
+      </c>
+      <c r="I73">
+        <v>2765.5</v>
+      </c>
+      <c r="J73">
+        <v>8970.2999999999993</v>
+      </c>
+      <c r="K73">
+        <v>12.6</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>4422.6000000000004</v>
+      </c>
+      <c r="O73">
+        <v>16380.3</v>
+      </c>
+      <c r="P73">
+        <v>10572.3</v>
+      </c>
+      <c r="Q73">
+        <v>-42.8</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>14090</v>
+      </c>
+      <c r="U73">
+        <v>750.1</v>
+      </c>
+      <c r="V73">
+        <v>493.6</v>
+      </c>
+      <c r="W73">
+        <v>-88.6</v>
+      </c>
+      <c r="X73">
+        <v>-398.7</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>338.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>76</v>
+      </c>
+      <c r="D74">
+        <v>2418.6999999999998</v>
+      </c>
+      <c r="E74">
+        <v>736</v>
+      </c>
+      <c r="F74">
+        <v>822.7</v>
+      </c>
+      <c r="G74">
+        <v>2766.3</v>
+      </c>
+      <c r="H74">
+        <v>30109.8</v>
+      </c>
+      <c r="I74">
+        <v>1616.8</v>
+      </c>
+      <c r="J74">
+        <v>8906.1</v>
+      </c>
+      <c r="K74">
+        <v>11.4</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>4300.8999999999996</v>
+      </c>
+      <c r="O74">
+        <v>16374</v>
+      </c>
+      <c r="P74">
+        <v>10585.9</v>
+      </c>
+      <c r="Q74">
+        <v>307.8</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>17750</v>
+      </c>
+      <c r="T74">
+        <v>13735.8</v>
+      </c>
+      <c r="U74">
+        <v>1057.9000000000001</v>
+      </c>
+      <c r="V74">
+        <v>539.9</v>
+      </c>
+      <c r="W74">
+        <v>-88.6</v>
+      </c>
+      <c r="X74">
+        <v>-85.5</v>
+      </c>
+      <c r="Y74">
+        <v>82.1</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>151.4</v>
+      </c>
+      <c r="D75">
+        <v>2303.3000000000002</v>
+      </c>
+      <c r="E75">
+        <v>909.5</v>
+      </c>
+      <c r="F75">
+        <v>890.3</v>
+      </c>
+      <c r="G75">
+        <v>2338</v>
+      </c>
+      <c r="H75">
+        <v>29823.599999999999</v>
+      </c>
+      <c r="I75">
+        <v>2440.1999999999998</v>
+      </c>
+      <c r="J75">
+        <v>8447</v>
+      </c>
+      <c r="K75">
+        <v>628.1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-1067.2</v>
+      </c>
+      <c r="N75">
+        <v>4202.3999999999996</v>
+      </c>
+      <c r="O75">
+        <v>15935.5</v>
+      </c>
+      <c r="P75">
+        <v>10335.6</v>
+      </c>
+      <c r="Q75">
+        <v>-823.5</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>13888.1</v>
+      </c>
+      <c r="U75">
+        <v>234.4</v>
+      </c>
+      <c r="V75">
+        <v>-98.5</v>
+      </c>
+      <c r="W75">
+        <v>-88.7</v>
+      </c>
+      <c r="X75">
+        <v>-534.79999999999995</v>
+      </c>
+      <c r="Y75">
+        <v>203.9</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>151.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>329.4</v>
+      </c>
+      <c r="D76">
+        <v>2948.3</v>
+      </c>
+      <c r="E76">
+        <v>932.3</v>
+      </c>
+      <c r="F76">
+        <v>1188.5</v>
+      </c>
+      <c r="G76">
+        <v>2600.4</v>
+      </c>
+      <c r="H76">
+        <v>30061.599999999999</v>
+      </c>
+      <c r="I76">
+        <v>2907.6</v>
+      </c>
+      <c r="J76">
+        <v>8528</v>
+      </c>
+      <c r="K76">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4080.3</v>
+      </c>
+      <c r="O76">
+        <v>15916.6</v>
+      </c>
+      <c r="P76">
+        <v>9811.7999999999993</v>
+      </c>
+      <c r="Q76">
+        <v>255.8</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>14145</v>
+      </c>
+      <c r="U76">
+        <v>490.2</v>
+      </c>
+      <c r="V76">
+        <v>926.5</v>
+      </c>
+      <c r="W76">
+        <v>-88.7</v>
+      </c>
+      <c r="X76">
+        <v>-701.1</v>
+      </c>
+      <c r="Y76">
+        <v>203.9</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>329.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-402.8</v>
+      </c>
+      <c r="D77">
+        <v>2841.6</v>
+      </c>
+      <c r="E77">
+        <v>821.5</v>
+      </c>
+      <c r="F77">
+        <v>1156.2</v>
+      </c>
+      <c r="G77">
+        <v>2286.9</v>
+      </c>
+      <c r="H77">
+        <v>28751.599999999999</v>
+      </c>
+      <c r="I77">
+        <v>2552.1</v>
+      </c>
+      <c r="J77">
+        <v>8176.4</v>
+      </c>
+      <c r="K77">
+        <v>272.10000000000002</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3888.6</v>
+      </c>
+      <c r="O77">
+        <v>15345.1</v>
+      </c>
+      <c r="P77">
+        <v>9586.2999999999993</v>
+      </c>
+      <c r="Q77">
+        <v>-80</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>13406.5</v>
+      </c>
+      <c r="U77">
+        <v>410.2</v>
+      </c>
+      <c r="V77">
+        <v>460.2</v>
+      </c>
+      <c r="W77">
+        <v>-123.5</v>
+      </c>
+      <c r="X77">
+        <v>-377.7</v>
+      </c>
+      <c r="Y77">
+        <v>171.7</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>-402.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="D78">
+        <v>2486.1999999999998</v>
+      </c>
+      <c r="E78">
+        <v>705.9</v>
+      </c>
+      <c r="F78">
+        <v>966.2</v>
+      </c>
+      <c r="G78">
+        <v>2184.4</v>
+      </c>
+      <c r="H78">
+        <v>28859.8</v>
+      </c>
+      <c r="I78">
+        <v>1686.8</v>
+      </c>
+      <c r="J78">
+        <v>8161</v>
+      </c>
+      <c r="K78">
+        <v>6.9</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3695.5</v>
+      </c>
+      <c r="O78">
+        <v>15186.7</v>
+      </c>
+      <c r="P78">
+        <v>9315.2999999999993</v>
+      </c>
+      <c r="Q78">
+        <v>113.2</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>17700</v>
+      </c>
+      <c r="T78">
+        <v>13673.1</v>
+      </c>
+      <c r="U78">
+        <v>523.4</v>
+      </c>
+      <c r="V78">
+        <v>609.1</v>
+      </c>
+      <c r="W78">
+        <v>-123.5</v>
+      </c>
+      <c r="X78">
+        <v>-393.4</v>
+      </c>
+      <c r="Y78">
+        <v>179.5</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>163.69999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-117</v>
+      </c>
+      <c r="D79">
+        <v>2102.8000000000002</v>
+      </c>
+      <c r="E79">
+        <v>637.79999999999995</v>
+      </c>
+      <c r="F79">
+        <v>623.79999999999995</v>
+      </c>
+      <c r="G79">
+        <v>2372.5</v>
+      </c>
+      <c r="H79">
+        <v>28461.1</v>
+      </c>
+      <c r="I79">
+        <v>2358.1</v>
+      </c>
+      <c r="J79">
+        <v>8273.1</v>
+      </c>
+      <c r="K79">
+        <v>54.7</v>
+      </c>
+      <c r="L79">
+        <v>-5.5</v>
+      </c>
+      <c r="M79">
+        <v>-502.9</v>
+      </c>
+      <c r="N79">
+        <v>4003.4</v>
+      </c>
+      <c r="O79">
+        <v>15515.1</v>
+      </c>
+      <c r="P79">
+        <v>9931.2999999999993</v>
+      </c>
+      <c r="Q79">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>12946</v>
+      </c>
+      <c r="U79">
+        <v>666.1</v>
+      </c>
+      <c r="V79">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="W79">
+        <v>-123.4</v>
+      </c>
+      <c r="X79">
+        <v>398.7</v>
+      </c>
+      <c r="Y79">
+        <v>166.7</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>195</v>
+      </c>
+      <c r="D80">
+        <v>2503.4</v>
+      </c>
+      <c r="E80">
+        <v>713.7</v>
+      </c>
+      <c r="F80">
+        <v>1046.8</v>
+      </c>
+      <c r="G80">
+        <v>2542.6999999999998</v>
+      </c>
+      <c r="H80">
+        <v>28638.799999999999</v>
+      </c>
+      <c r="I80">
+        <v>2511.6</v>
+      </c>
+      <c r="J80">
+        <v>8308.7999999999993</v>
+      </c>
+      <c r="K80">
+        <v>209.6</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3805.7</v>
+      </c>
+      <c r="O80">
+        <v>15370.8</v>
+      </c>
+      <c r="P80">
+        <v>9133.7000000000007</v>
+      </c>
+      <c r="Q80">
+        <v>114.7</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>13268</v>
+      </c>
+      <c r="U80">
+        <v>780.8</v>
+      </c>
+      <c r="V80">
+        <v>1078</v>
+      </c>
+      <c r="W80">
+        <v>-1.9</v>
+      </c>
+      <c r="X80">
+        <v>-848.5</v>
+      </c>
+      <c r="Y80">
+        <v>164.7</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>342.8</v>
+      </c>
+      <c r="D81">
+        <v>2753.5</v>
+      </c>
+      <c r="E81">
+        <v>694.2</v>
+      </c>
+      <c r="F81">
+        <v>1202.5</v>
+      </c>
+      <c r="G81">
+        <v>2640.5</v>
+      </c>
+      <c r="H81">
+        <v>28675.3</v>
+      </c>
+      <c r="I81">
+        <v>2664.1</v>
+      </c>
+      <c r="J81">
+        <v>7286.7</v>
+      </c>
+      <c r="K81">
+        <v>232.7</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>4310.5</v>
+      </c>
+      <c r="O81">
+        <v>14899.7</v>
+      </c>
+      <c r="P81">
+        <v>8790.7999999999993</v>
+      </c>
+      <c r="Q81">
+        <v>-49.5</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>13775.6</v>
+      </c>
+      <c r="U81">
+        <v>731.3</v>
+      </c>
+      <c r="V81">
+        <v>433.3</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-391.5</v>
+      </c>
+      <c r="Y81">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>342.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>-1369.8</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2294.3000000000002</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>549.6</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>895.2</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2418.8000000000002</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>27331.1</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1732.7</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>7322.1</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>14</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3909.6</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>14709.8</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>8603.2999999999993</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>38.799999999999997</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>17000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>12621.3</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>770.1</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>202.5</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-229.1</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>166.3</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>-1369.8</v>
       </c>
     </row>
